--- a/excel/collective/zestawy_dla_uczniow/zestaw_029.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_029.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="313">
   <si>
     <t>ZESTAW ZADAŃ NR 29 - CZĘŚĆ 1</t>
   </si>
@@ -61,19 +61,19 @@
     <t>Przedmiot</t>
   </si>
   <si>
-    <t>Maja Zawadzka</t>
-  </si>
-  <si>
-    <t>Amelia Borkowska</t>
-  </si>
-  <si>
-    <t>Emilia Wójcik</t>
-  </si>
-  <si>
-    <t>Julia Wilk</t>
-  </si>
-  <si>
-    <t>Antoni Krawczyk</t>
+    <t>Jan Kowalski</t>
+  </si>
+  <si>
+    <t>Lena Rogalska</t>
+  </si>
+  <si>
+    <t>Jan Nowak</t>
+  </si>
+  <si>
+    <t>Emilia Zawadzka</t>
+  </si>
+  <si>
+    <t>Filip Grabowski</t>
   </si>
   <si>
     <t>ŚREDNIA</t>
@@ -160,40 +160,40 @@
     <t>Razem (zł)</t>
   </si>
   <si>
+    <t>Farby plakatowe 12 kolorów</t>
+  </si>
+  <si>
+    <t>13,90</t>
+  </si>
+  <si>
     <t>Temperówka</t>
   </si>
   <si>
-    <t>2,60</t>
-  </si>
-  <si>
-    <t>Gumka do mazania</t>
-  </si>
-  <si>
-    <t>1,70</t>
-  </si>
-  <si>
-    <t>Farby plakatowe 12 kolorów</t>
-  </si>
-  <si>
-    <t>18,60</t>
+    <t>1,50</t>
+  </si>
+  <si>
+    <t>Pędzelek</t>
+  </si>
+  <si>
+    <t>6,10</t>
+  </si>
+  <si>
+    <t>Ołówek HB</t>
+  </si>
+  <si>
+    <t>0,90</t>
+  </si>
+  <si>
+    <t>Cyrkiel</t>
+  </si>
+  <si>
+    <t>9,40</t>
   </si>
   <si>
     <t>Linijka 30 cm</t>
   </si>
   <si>
-    <t>3,60</t>
-  </si>
-  <si>
-    <t>Długopis niebieski</t>
-  </si>
-  <si>
-    <t>2,80</t>
-  </si>
-  <si>
-    <t>Ołówek HB</t>
-  </si>
-  <si>
-    <t>1,40</t>
+    <t>2,40</t>
   </si>
   <si>
     <t>SUMA:</t>
@@ -220,31 +220,31 @@
     <t>Zeszyt</t>
   </si>
   <si>
-    <t>24,50</t>
+    <t>9,32</t>
   </si>
   <si>
     <t>Ołówek</t>
   </si>
   <si>
-    <t>17,15</t>
+    <t>2,93</t>
   </si>
   <si>
     <t>Długopis</t>
   </si>
   <si>
-    <t>5,32</t>
+    <t>3,91</t>
   </si>
   <si>
     <t>Linijka</t>
   </si>
   <si>
-    <t>30,53</t>
+    <t>4,87</t>
   </si>
   <si>
     <t>Gumka</t>
   </si>
   <si>
-    <t>7,49</t>
+    <t>12,87</t>
   </si>
   <si>
     <t>Razem Styczeń:</t>
@@ -253,19 +253,19 @@
     <t>Luty:</t>
   </si>
   <si>
-    <t>30,05</t>
-  </si>
-  <si>
-    <t>1,79</t>
-  </si>
-  <si>
-    <t>12,44</t>
-  </si>
-  <si>
-    <t>20,01</t>
-  </si>
-  <si>
-    <t>17,94</t>
+    <t>11,06</t>
+  </si>
+  <si>
+    <t>13,41</t>
+  </si>
+  <si>
+    <t>15,81</t>
+  </si>
+  <si>
+    <t>12,53</t>
+  </si>
+  <si>
+    <t>25,86</t>
   </si>
   <si>
     <t>Razem Luty:</t>
@@ -274,19 +274,19 @@
     <t>Marzec:</t>
   </si>
   <si>
-    <t>28,01</t>
-  </si>
-  <si>
-    <t>2,27</t>
-  </si>
-  <si>
-    <t>17,95</t>
-  </si>
-  <si>
-    <t>22,39</t>
-  </si>
-  <si>
-    <t>8,33</t>
+    <t>8,22</t>
+  </si>
+  <si>
+    <t>13,22</t>
+  </si>
+  <si>
+    <t>6,74</t>
+  </si>
+  <si>
+    <t>7,98</t>
+  </si>
+  <si>
+    <t>9,21</t>
   </si>
   <si>
     <t>Razem Marzec:</t>
@@ -340,37 +340,46 @@
     <t>Czy pasek?</t>
   </si>
   <si>
+    <t>Julia</t>
+  </si>
+  <si>
+    <t>Wilk</t>
+  </si>
+  <si>
+    <t>Emilia</t>
+  </si>
+  <si>
+    <t>Lis</t>
+  </si>
+  <si>
+    <t>Aleksander</t>
+  </si>
+  <si>
+    <t>Zieliński</t>
+  </si>
+  <si>
+    <t>Szymon</t>
+  </si>
+  <si>
+    <t>Kowalczyk</t>
+  </si>
+  <si>
     <t>Jan</t>
   </si>
   <si>
-    <t>Nowak</t>
-  </si>
-  <si>
-    <t>Anna</t>
-  </si>
-  <si>
-    <t>Lis</t>
-  </si>
-  <si>
-    <t>Jakub</t>
+    <t>Szymański</t>
+  </si>
+  <si>
+    <t>Lewandowski</t>
   </si>
   <si>
     <t>Wójcik</t>
   </si>
   <si>
-    <t>Maja</t>
-  </si>
-  <si>
-    <t>Kubiak</t>
-  </si>
-  <si>
-    <t>Wojciech</t>
-  </si>
-  <si>
-    <t>Mikołaj</t>
-  </si>
-  <si>
-    <t>Szymański</t>
+    <t>Natalia</t>
+  </si>
+  <si>
+    <t>Urbaniak</t>
   </si>
   <si>
     <t>Średnia przedmiotu:</t>
@@ -406,127 +415,136 @@
     <t>Zarobki (zł)</t>
   </si>
   <si>
-    <t>Filip Lewandowski</t>
-  </si>
-  <si>
-    <t>11.01.1998</t>
-  </si>
-  <si>
-    <t>11 093,00 zł</t>
-  </si>
-  <si>
-    <t>Anna Sadowska</t>
-  </si>
-  <si>
-    <t>12.07.1985</t>
-  </si>
-  <si>
-    <t>9 181,00 zł</t>
-  </si>
-  <si>
-    <t>Antoni Szymański</t>
-  </si>
-  <si>
-    <t>04.12.2000</t>
-  </si>
-  <si>
-    <t>9 112,00 zł</t>
-  </si>
-  <si>
-    <t>Wojciech Wojciechowski</t>
-  </si>
-  <si>
-    <t>21.08.1977</t>
-  </si>
-  <si>
-    <t>8 960,00 zł</t>
-  </si>
-  <si>
-    <t>Adam Zieliński</t>
-  </si>
-  <si>
-    <t>02.01.1975</t>
-  </si>
-  <si>
-    <t>3 745,00 zł</t>
-  </si>
-  <si>
-    <t>Adam Kozłowski</t>
-  </si>
-  <si>
-    <t>15.05.2004</t>
-  </si>
-  <si>
-    <t>9 242,00 zł</t>
-  </si>
-  <si>
-    <t>Adam Kamiński</t>
-  </si>
-  <si>
-    <t>16.02.2001</t>
-  </si>
-  <si>
-    <t>10 733,00 zł</t>
-  </si>
-  <si>
-    <t>Wojciech Wójcik</t>
-  </si>
-  <si>
-    <t>24.11.1987</t>
-  </si>
-  <si>
-    <t>8 771,00 zł</t>
-  </si>
-  <si>
-    <t>Kacper Nowak</t>
-  </si>
-  <si>
-    <t>11.11.1991</t>
-  </si>
-  <si>
-    <t>12 760,00 zł</t>
-  </si>
-  <si>
-    <t>Julia Maciejewska</t>
-  </si>
-  <si>
-    <t>27.05.1991</t>
-  </si>
-  <si>
-    <t>7 336,00 zł</t>
-  </si>
-  <si>
-    <t>Jan Lewandowski</t>
-  </si>
-  <si>
-    <t>14.12.1996</t>
-  </si>
-  <si>
-    <t>14 965,00 zł</t>
-  </si>
-  <si>
-    <t>Hanna Malinowska</t>
-  </si>
-  <si>
-    <t>15.11.1980</t>
-  </si>
-  <si>
-    <t>5 599,00 zł</t>
-  </si>
-  <si>
-    <t>16.03.1976</t>
-  </si>
-  <si>
-    <t>10 553,00 zł</t>
-  </si>
-  <si>
-    <t>Lena Górska</t>
-  </si>
-  <si>
-    <t>17.01.1993</t>
-  </si>
-  <si>
-    <t>11 109,00 zł</t>
+    <t>Julia Zawadzka</t>
+  </si>
+  <si>
+    <t>24.11.2001</t>
+  </si>
+  <si>
+    <t>12 900,00 zł</t>
+  </si>
+  <si>
+    <t>Lena Maciejewska</t>
+  </si>
+  <si>
+    <t>15.07.1998</t>
+  </si>
+  <si>
+    <t>6 058,00 zł</t>
+  </si>
+  <si>
+    <t>Zuzanna Wilk</t>
+  </si>
+  <si>
+    <t>01.06.1985</t>
+  </si>
+  <si>
+    <t>13 744,00 zł</t>
+  </si>
+  <si>
+    <t>Oliwia Górska</t>
+  </si>
+  <si>
+    <t>21.06.1993</t>
+  </si>
+  <si>
+    <t>8 864,00 zł</t>
+  </si>
+  <si>
+    <t>15.04.1991</t>
+  </si>
+  <si>
+    <t>3 887,00 zł</t>
+  </si>
+  <si>
+    <t>Filip Wiśniewski</t>
+  </si>
+  <si>
+    <t>09.10.2001</t>
+  </si>
+  <si>
+    <t>11 067,00 zł</t>
+  </si>
+  <si>
+    <t>Aleksander Kamiński</t>
+  </si>
+  <si>
+    <t>06.01.1991</t>
+  </si>
+  <si>
+    <t>13 282,00 zł</t>
+  </si>
+  <si>
+    <t>Aleksander Kowalczyk</t>
+  </si>
+  <si>
+    <t>22.08.1980</t>
+  </si>
+  <si>
+    <t>10 575,00 zł</t>
+  </si>
+  <si>
+    <t>Anna Borkowska</t>
+  </si>
+  <si>
+    <t>20.10.1994</t>
+  </si>
+  <si>
+    <t>14 390,00 zł</t>
+  </si>
+  <si>
+    <t>Amelia Wilk</t>
+  </si>
+  <si>
+    <t>11.01.1983</t>
+  </si>
+  <si>
+    <t>6 617,00 zł</t>
+  </si>
+  <si>
+    <t>Amelia Bednarska</t>
+  </si>
+  <si>
+    <t>01.05.1980</t>
+  </si>
+  <si>
+    <t>11 205,00 zł</t>
+  </si>
+  <si>
+    <t>Zuzanna Lis</t>
+  </si>
+  <si>
+    <t>24.12.1992</t>
+  </si>
+  <si>
+    <t>14 291,00 zł</t>
+  </si>
+  <si>
+    <t>Antoni Grabowski</t>
+  </si>
+  <si>
+    <t>04.07.1998</t>
+  </si>
+  <si>
+    <t>11 932,00 zł</t>
+  </si>
+  <si>
+    <t>Filip Kowalczyk</t>
+  </si>
+  <si>
+    <t>24.08.1980</t>
+  </si>
+  <si>
+    <t>9 768,00 zł</t>
+  </si>
+  <si>
+    <t>Szymon Nowak</t>
+  </si>
+  <si>
+    <t>21.12.1991</t>
+  </si>
+  <si>
+    <t>7 146,00 zł</t>
   </si>
   <si>
     <t>OBLICZENIA:</t>
@@ -598,283 +616,334 @@
     <t>Województwo</t>
   </si>
   <si>
-    <t>Luty</t>
+    <t>kwiecień</t>
+  </si>
+  <si>
+    <t>Mikrofon studyjny</t>
+  </si>
+  <si>
+    <t>816,00 zł</t>
+  </si>
+  <si>
+    <t>1 069,00 zł</t>
+  </si>
+  <si>
+    <t>Maria Dąbrowska</t>
+  </si>
+  <si>
+    <t>mazowieckie</t>
+  </si>
+  <si>
+    <t>luty</t>
+  </si>
+  <si>
+    <t>Obudowa gamingowa</t>
+  </si>
+  <si>
+    <t>665,00 zł</t>
+  </si>
+  <si>
+    <t>924,00 zł</t>
+  </si>
+  <si>
+    <t>Agnieszka Wojciechowska</t>
+  </si>
+  <si>
+    <t>świętokrzyskie</t>
+  </si>
+  <si>
+    <t>maj</t>
+  </si>
+  <si>
+    <t>Powerbank 20000mAh</t>
+  </si>
+  <si>
+    <t>1 103,00 zł</t>
+  </si>
+  <si>
+    <t>1 313,00 zł</t>
+  </si>
+  <si>
+    <t>Paweł Kwiatkowski</t>
+  </si>
+  <si>
+    <t>styczeń</t>
+  </si>
+  <si>
+    <t>Klawiatura mechaniczna</t>
+  </si>
+  <si>
+    <t>1 117,00 zł</t>
+  </si>
+  <si>
+    <t>1 262,00 zł</t>
+  </si>
+  <si>
+    <t>Magdalena Szymańska</t>
+  </si>
+  <si>
+    <t>podlaskie</t>
   </si>
   <si>
     <t>Kamera internetowa</t>
   </si>
   <si>
-    <t>1 389,00 zł</t>
-  </si>
-  <si>
-    <t>1 917,00 zł</t>
+    <t>1 017,00 zł</t>
+  </si>
+  <si>
+    <t>1 292,00 zł</t>
+  </si>
+  <si>
+    <t>Michał Jankowski</t>
+  </si>
+  <si>
+    <t>łódzkie</t>
+  </si>
+  <si>
+    <t>Projektor multimedialny</t>
+  </si>
+  <si>
+    <t>1 367,00 zł</t>
+  </si>
+  <si>
+    <t>1 681,00 zł</t>
+  </si>
+  <si>
+    <t>Andrzej Woźniak</t>
+  </si>
+  <si>
+    <t>Smartwatch</t>
+  </si>
+  <si>
+    <t>681,00 zł</t>
+  </si>
+  <si>
+    <t>940,00 zł</t>
   </si>
   <si>
     <t>Monika Krawczyk</t>
   </si>
   <si>
+    <t>wielkopolskie</t>
+  </si>
+  <si>
+    <t>1 176,00 zł</t>
+  </si>
+  <si>
+    <t>1 376,00 zł</t>
+  </si>
+  <si>
+    <t>śląskie</t>
+  </si>
+  <si>
+    <t>czerwiec</t>
+  </si>
+  <si>
+    <t>Monitor 24" 4K</t>
+  </si>
+  <si>
+    <t>1 340,00 zł</t>
+  </si>
+  <si>
+    <t>1 809,00 zł</t>
+  </si>
+  <si>
+    <t>Barbara Kozłowska</t>
+  </si>
+  <si>
+    <t>kujawsko-pomorskie</t>
+  </si>
+  <si>
+    <t>Pamięć RAM 16GB</t>
+  </si>
+  <si>
+    <t>678,00 zł</t>
+  </si>
+  <si>
+    <t>909,00 zł</t>
+  </si>
+  <si>
+    <t>warmińsko-mazurskie</t>
+  </si>
+  <si>
+    <t>676,00 zł</t>
+  </si>
+  <si>
+    <t>933,00 zł</t>
+  </si>
+  <si>
+    <t>Katarzyna Mazur</t>
+  </si>
+  <si>
+    <t>1 042,00 zł</t>
+  </si>
+  <si>
+    <t>1 448,00 zł</t>
+  </si>
+  <si>
+    <t>podkarpackie</t>
+  </si>
+  <si>
+    <t>Smart TV 55"</t>
+  </si>
+  <si>
+    <t>1 195,00 zł</t>
+  </si>
+  <si>
+    <t>1 661,00 zł</t>
+  </si>
+  <si>
+    <t>lubuskie</t>
+  </si>
+  <si>
+    <t>marzec</t>
+  </si>
+  <si>
+    <t>Procesor i5</t>
+  </si>
+  <si>
+    <t>1 316,00 zł</t>
+  </si>
+  <si>
+    <t>1 500,00 zł</t>
+  </si>
+  <si>
+    <t>Ewa Kowalczyk</t>
+  </si>
+  <si>
+    <t>Tablet 10"</t>
+  </si>
+  <si>
+    <t>1 427,00 zł</t>
+  </si>
+  <si>
+    <t>1 584,00 zł</t>
+  </si>
+  <si>
+    <t>Piotr Wiśniewski</t>
+  </si>
+  <si>
     <t>opolskie</t>
   </si>
   <si>
-    <t>Głośnik Bluetooth</t>
-  </si>
-  <si>
-    <t>1 319,00 zł</t>
-  </si>
-  <si>
-    <t>1 702,00 zł</t>
-  </si>
-  <si>
-    <t>Ewa Kowalczyk</t>
+    <t>Zasilacz 650W</t>
+  </si>
+  <si>
+    <t>1 116,00 zł</t>
+  </si>
+  <si>
+    <t>1 328,00 zł</t>
+  </si>
+  <si>
+    <t>Tomasz Kamiński</t>
+  </si>
+  <si>
+    <t>lubelskie</t>
+  </si>
+  <si>
+    <t>724,00 zł</t>
+  </si>
+  <si>
+    <t>840,00 zł</t>
+  </si>
+  <si>
+    <t>Anna Nowak</t>
+  </si>
+  <si>
+    <t>1 433,00 zł</t>
+  </si>
+  <si>
+    <t>1 677,00 zł</t>
+  </si>
+  <si>
+    <t>Drukarka laserowa</t>
+  </si>
+  <si>
+    <t>718,00 zł</t>
+  </si>
+  <si>
+    <t>991,00 zł</t>
+  </si>
+  <si>
+    <t>Krzysztof Lewandowski</t>
+  </si>
+  <si>
+    <t>małopolskie</t>
+  </si>
+  <si>
+    <t>1 314,00 zł</t>
+  </si>
+  <si>
+    <t>1 826,00 zł</t>
   </si>
   <si>
     <t>zachodniopomorskie</t>
   </si>
   <si>
-    <t>Styczeń</t>
+    <t>Konsola do gier</t>
+  </si>
+  <si>
+    <t>1 370,00 zł</t>
+  </si>
+  <si>
+    <t>1 891,00 zł</t>
   </si>
   <si>
     <t>Dysk SSD 1TB</t>
   </si>
   <si>
-    <t>546,00 zł</t>
-  </si>
-  <si>
-    <t>683,00 zł</t>
-  </si>
-  <si>
-    <t>Andrzej Woźniak</t>
-  </si>
-  <si>
-    <t>podlaskie</t>
-  </si>
-  <si>
-    <t>Marzec</t>
-  </si>
-  <si>
-    <t>Konsola do gier</t>
-  </si>
-  <si>
-    <t>1 085,00 zł</t>
-  </si>
-  <si>
-    <t>1 508,00 zł</t>
-  </si>
-  <si>
-    <t>Katarzyna Mazur</t>
-  </si>
-  <si>
-    <t>śląskie</t>
-  </si>
-  <si>
-    <t>Obudowa gamingowa</t>
-  </si>
-  <si>
-    <t>1 314,00 zł</t>
-  </si>
-  <si>
-    <t>1 734,00 zł</t>
-  </si>
-  <si>
-    <t>Anna Nowak</t>
-  </si>
-  <si>
-    <t>mazowieckie</t>
-  </si>
-  <si>
-    <t>Odtwarzacz DVD</t>
-  </si>
-  <si>
-    <t>1 325,00 zł</t>
-  </si>
-  <si>
-    <t>1 484,00 zł</t>
+    <t>1 148,00 zł</t>
+  </si>
+  <si>
+    <t>1 573,00 zł</t>
+  </si>
+  <si>
+    <t>1 443,00 zł</t>
+  </si>
+  <si>
+    <t>1 804,00 zł</t>
+  </si>
+  <si>
+    <t>1 200,00 zł</t>
+  </si>
+  <si>
+    <t>1 428,00 zł</t>
+  </si>
+  <si>
+    <t>Słuchawki bezprzewodowe</t>
+  </si>
+  <si>
+    <t>1 293,00 zł</t>
+  </si>
+  <si>
+    <t>1 422,00 zł</t>
+  </si>
+  <si>
+    <t>1 420,00 zł</t>
+  </si>
+  <si>
+    <t>1 704,00 zł</t>
+  </si>
+  <si>
+    <t>563,00 zł</t>
+  </si>
+  <si>
+    <t>625,00 zł</t>
+  </si>
+  <si>
+    <t>1 332,00 zł</t>
+  </si>
+  <si>
+    <t>1 585,00 zł</t>
   </si>
   <si>
     <t>Laptop Gaming i7</t>
   </si>
   <si>
-    <t>576,00 zł</t>
-  </si>
-  <si>
-    <t>691,00 zł</t>
-  </si>
-  <si>
-    <t>lubelskie</t>
-  </si>
-  <si>
-    <t>Tablet 10"</t>
-  </si>
-  <si>
-    <t>673,00 zł</t>
-  </si>
-  <si>
-    <t>915,00 zł</t>
-  </si>
-  <si>
-    <t>Powerbank 20000mAh</t>
-  </si>
-  <si>
-    <t>1 482,00 zł</t>
-  </si>
-  <si>
-    <t>1 719,00 zł</t>
-  </si>
-  <si>
-    <t>Płyta główna</t>
-  </si>
-  <si>
-    <t>742,00 zł</t>
-  </si>
-  <si>
-    <t>905,00 zł</t>
-  </si>
-  <si>
-    <t>1 088,00 zł</t>
-  </si>
-  <si>
-    <t>1 295,00 zł</t>
-  </si>
-  <si>
-    <t>639,00 zł</t>
-  </si>
-  <si>
-    <t>792,00 zł</t>
-  </si>
-  <si>
-    <t>Tomasz Kamiński</t>
-  </si>
-  <si>
-    <t>Monitor 24" 4K</t>
-  </si>
-  <si>
-    <t>1 106,00 zł</t>
-  </si>
-  <si>
-    <t>1 537,00 zł</t>
-  </si>
-  <si>
-    <t>Słuchawki bezprzewodowe</t>
-  </si>
-  <si>
-    <t>660,00 zł</t>
-  </si>
-  <si>
-    <t>898,00 zł</t>
-  </si>
-  <si>
-    <t>Jan Kowalski</t>
-  </si>
-  <si>
-    <t>podkarpackie</t>
-  </si>
-  <si>
-    <t>954,00 zł</t>
-  </si>
-  <si>
-    <t>1 126,00 zł</t>
-  </si>
-  <si>
-    <t>Marcin Zieliński</t>
-  </si>
-  <si>
-    <t>1 004,00 zł</t>
-  </si>
-  <si>
-    <t>1 135,00 zł</t>
-  </si>
-  <si>
-    <t>Pamięć RAM 16GB</t>
-  </si>
-  <si>
-    <t>848,00 zł</t>
-  </si>
-  <si>
-    <t>1 111,00 zł</t>
-  </si>
-  <si>
-    <t>wielkopolskie</t>
-  </si>
-  <si>
-    <t>1 149,00 zł</t>
-  </si>
-  <si>
-    <t>1 528,00 zł</t>
-  </si>
-  <si>
-    <t>Barbara Kozłowska</t>
-  </si>
-  <si>
-    <t>Procesor i5</t>
-  </si>
-  <si>
-    <t>1 303,00 zł</t>
-  </si>
-  <si>
-    <t>1 603,00 zł</t>
-  </si>
-  <si>
-    <t>620,00 zł</t>
-  </si>
-  <si>
-    <t>756,00 zł</t>
-  </si>
-  <si>
-    <t>Krzysztof Lewandowski</t>
-  </si>
-  <si>
-    <t>Router Wi-Fi 6</t>
-  </si>
-  <si>
-    <t>1 366,00 zł</t>
-  </si>
-  <si>
-    <t>1 667,00 zł</t>
-  </si>
-  <si>
-    <t>lubuskie</t>
-  </si>
-  <si>
-    <t>1 380,00 zł</t>
-  </si>
-  <si>
-    <t>1 559,00 zł</t>
-  </si>
-  <si>
-    <t>1 183,00 zł</t>
-  </si>
-  <si>
-    <t>1 301,00 zł</t>
-  </si>
-  <si>
-    <t>Zasilacz 650W</t>
-  </si>
-  <si>
-    <t>1 077,00 zł</t>
-  </si>
-  <si>
-    <t>Karta graficzna RTX</t>
-  </si>
-  <si>
-    <t>1 150,00 zł</t>
-  </si>
-  <si>
-    <t>1 530,00 zł</t>
-  </si>
-  <si>
-    <t>pomorskie</t>
-  </si>
-  <si>
-    <t>603,00 zł</t>
-  </si>
-  <si>
-    <t>820,00 zł</t>
-  </si>
-  <si>
-    <t>Magdalena Szymańska</t>
-  </si>
-  <si>
-    <t>świętokrzyskie</t>
+    <t>1 208,00 zł</t>
+  </si>
+  <si>
+    <t>1 413,00 zł</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -1434,16 +1503,16 @@
         <v>3</v>
       </c>
       <c r="C17" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E17" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F17" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G17" s="5"/>
     </row>
@@ -1455,16 +1524,16 @@
         <v>4</v>
       </c>
       <c r="C18" s="3">
+        <v>5</v>
+      </c>
+      <c r="D18" s="3">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3">
         <v>2</v>
       </c>
-      <c r="D18" s="3">
-        <v>6</v>
-      </c>
-      <c r="E18" s="3">
-        <v>4</v>
-      </c>
       <c r="F18" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G18" s="5"/>
     </row>
@@ -1473,19 +1542,19 @@
         <v>21</v>
       </c>
       <c r="B19" s="3">
+        <v>6</v>
+      </c>
+      <c r="C19" s="3">
         <v>5</v>
       </c>
-      <c r="C19" s="3">
-        <v>3</v>
-      </c>
       <c r="D19" s="3">
+        <v>6</v>
+      </c>
+      <c r="E19" s="3">
+        <v>6</v>
+      </c>
+      <c r="F19" s="3">
         <v>4</v>
-      </c>
-      <c r="E19" s="3">
-        <v>2</v>
-      </c>
-      <c r="F19" s="3">
-        <v>3</v>
       </c>
       <c r="G19" s="5"/>
     </row>
@@ -1494,16 +1563,16 @@
         <v>22</v>
       </c>
       <c r="B20" s="3">
+        <v>5</v>
+      </c>
+      <c r="C20" s="3">
+        <v>5</v>
+      </c>
+      <c r="D20" s="3">
         <v>6</v>
       </c>
-      <c r="C20" s="3">
-        <v>3</v>
-      </c>
-      <c r="D20" s="3">
-        <v>4</v>
-      </c>
       <c r="E20" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F20" s="3">
         <v>5</v>
@@ -1518,16 +1587,16 @@
         <v>3</v>
       </c>
       <c r="C21" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D21" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E21" s="3">
         <v>5</v>
       </c>
       <c r="F21" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G21" s="5"/>
     </row>
@@ -1539,7 +1608,7 @@
         <v>3</v>
       </c>
       <c r="C22" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D22" s="3">
         <v>3</v>
@@ -1548,7 +1617,7 @@
         <v>5</v>
       </c>
       <c r="F22" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G22" s="5"/>
     </row>
@@ -1557,19 +1626,19 @@
         <v>25</v>
       </c>
       <c r="B23" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C23" s="3">
         <v>5</v>
       </c>
       <c r="D23" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E23" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F23" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G23" s="5"/>
     </row>
@@ -1578,16 +1647,16 @@
         <v>26</v>
       </c>
       <c r="B24" s="3">
+        <v>4</v>
+      </c>
+      <c r="C24" s="3">
         <v>3</v>
-      </c>
-      <c r="C24" s="3">
-        <v>2</v>
       </c>
       <c r="D24" s="3">
         <v>4</v>
       </c>
       <c r="E24" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F24" s="3">
         <v>6</v>
@@ -1599,19 +1668,19 @@
         <v>27</v>
       </c>
       <c r="B25" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C25" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" s="3">
+        <v>3</v>
+      </c>
+      <c r="E25" s="3">
         <v>2</v>
       </c>
-      <c r="E25" s="3">
+      <c r="F25" s="3">
         <v>3</v>
-      </c>
-      <c r="F25" s="3">
-        <v>2</v>
       </c>
       <c r="G25" s="5"/>
     </row>
@@ -1620,19 +1689,19 @@
         <v>28</v>
       </c>
       <c r="B26" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C26" s="3">
         <v>5</v>
       </c>
       <c r="D26" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E26" s="3">
         <v>2</v>
       </c>
       <c r="F26" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G26" s="5"/>
     </row>
@@ -1641,16 +1710,16 @@
         <v>29</v>
       </c>
       <c r="B27" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C27" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" s="3">
         <v>3</v>
       </c>
       <c r="E27" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F27" s="3">
         <v>6</v>
@@ -1665,16 +1734,16 @@
         <v>2</v>
       </c>
       <c r="C28" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D28" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E28" s="3">
         <v>5</v>
       </c>
       <c r="F28" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G28" s="5"/>
     </row>
@@ -1796,7 +1865,7 @@
         <v>47</v>
       </c>
       <c r="D13" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -1811,7 +1880,7 @@
         <v>49</v>
       </c>
       <c r="D14" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E14" s="3"/>
     </row>
@@ -1826,7 +1895,7 @@
         <v>51</v>
       </c>
       <c r="D15" s="3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E15" s="3"/>
     </row>
@@ -1841,7 +1910,7 @@
         <v>53</v>
       </c>
       <c r="D16" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E16" s="3"/>
     </row>
@@ -1856,7 +1925,7 @@
         <v>55</v>
       </c>
       <c r="D17" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E17" s="3"/>
     </row>
@@ -1988,7 +2057,7 @@
         <v>66</v>
       </c>
       <c r="C15" s="3">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="D15" s="3"/>
     </row>
@@ -2000,7 +2069,7 @@
         <v>68</v>
       </c>
       <c r="C16" s="3">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D16" s="3"/>
     </row>
@@ -2012,7 +2081,7 @@
         <v>70</v>
       </c>
       <c r="C17" s="3">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="D17" s="3"/>
     </row>
@@ -2024,7 +2093,7 @@
         <v>72</v>
       </c>
       <c r="C18" s="3">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D18" s="3"/>
     </row>
@@ -2036,7 +2105,7 @@
         <v>74</v>
       </c>
       <c r="C19" s="3">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D19" s="3"/>
     </row>
@@ -2084,7 +2153,7 @@
         <v>77</v>
       </c>
       <c r="C24" s="3">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="D24" s="3"/>
     </row>
@@ -2096,7 +2165,7 @@
         <v>78</v>
       </c>
       <c r="C25" s="3">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D25" s="3"/>
     </row>
@@ -2108,7 +2177,7 @@
         <v>79</v>
       </c>
       <c r="C26" s="3">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D26" s="3"/>
     </row>
@@ -2120,7 +2189,7 @@
         <v>80</v>
       </c>
       <c r="C27" s="3">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D27" s="3"/>
     </row>
@@ -2132,7 +2201,7 @@
         <v>81</v>
       </c>
       <c r="C28" s="3">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D28" s="3"/>
     </row>
@@ -2180,7 +2249,7 @@
         <v>84</v>
       </c>
       <c r="C33" s="3">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D33" s="3"/>
     </row>
@@ -2192,7 +2261,7 @@
         <v>85</v>
       </c>
       <c r="C34" s="3">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D34" s="3"/>
     </row>
@@ -2204,7 +2273,7 @@
         <v>86</v>
       </c>
       <c r="C35" s="3">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="D35" s="3"/>
     </row>
@@ -2216,7 +2285,7 @@
         <v>87</v>
       </c>
       <c r="C36" s="3">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="D36" s="3"/>
     </row>
@@ -2228,7 +2297,7 @@
         <v>88</v>
       </c>
       <c r="C37" s="3">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D37" s="3"/>
     </row>
@@ -2262,10 +2331,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A19" sqref="A19:L19"/>
+      <selection activeCell="A21" sqref="A21:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2371,25 +2440,25 @@
         <v>107</v>
       </c>
       <c r="D12" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E12" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F12" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G12" s="3">
         <v>6</v>
       </c>
       <c r="H12" s="3">
+        <v>2</v>
+      </c>
+      <c r="I12" s="3">
         <v>3</v>
       </c>
-      <c r="I12" s="3">
-        <v>5</v>
-      </c>
       <c r="J12" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -2403,25 +2472,25 @@
         <v>109</v>
       </c>
       <c r="D13" s="3">
+        <v>4</v>
+      </c>
+      <c r="E13" s="3">
+        <v>5</v>
+      </c>
+      <c r="F13" s="3">
         <v>2</v>
       </c>
-      <c r="E13" s="3">
-        <v>4</v>
-      </c>
-      <c r="F13" s="3">
-        <v>4</v>
-      </c>
       <c r="G13" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H13" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I13" s="3">
         <v>3</v>
       </c>
       <c r="J13" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -2441,19 +2510,19 @@
         <v>4</v>
       </c>
       <c r="F14" s="3">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
-        <v>2</v>
-      </c>
       <c r="H14" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I14" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J14" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -2470,22 +2539,22 @@
         <v>4</v>
       </c>
       <c r="E15" s="3">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3">
         <v>5</v>
-      </c>
-      <c r="F15" s="3">
-        <v>2</v>
       </c>
       <c r="G15" s="3">
         <v>6</v>
       </c>
       <c r="H15" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I15" s="3">
+        <v>6</v>
+      </c>
+      <c r="J15" s="3">
         <v>2</v>
-      </c>
-      <c r="J15" s="3">
-        <v>5</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -2496,25 +2565,25 @@
         <v>114</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="D16" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E16" s="3">
+        <v>3</v>
+      </c>
+      <c r="F16" s="3">
+        <v>5</v>
+      </c>
+      <c r="G16" s="3">
         <v>6</v>
       </c>
-      <c r="F16" s="3">
-        <v>2</v>
-      </c>
-      <c r="G16" s="3">
-        <v>5</v>
-      </c>
       <c r="H16" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I16" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J16" s="3">
         <v>4</v>
@@ -2525,28 +2594,28 @@
     <row r="17" spans="1:12">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>116</v>
       </c>
       <c r="D17" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E17" s="3">
         <v>2</v>
       </c>
       <c r="F17" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G17" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H17" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I17" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J17" s="3">
         <v>4</v>
@@ -2555,42 +2624,106 @@
       <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
+      <c r="D18" s="3">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3">
+        <v>5</v>
+      </c>
+      <c r="F18" s="3">
+        <v>3</v>
+      </c>
+      <c r="G18" s="3">
+        <v>5</v>
+      </c>
+      <c r="H18" s="3">
+        <v>5</v>
+      </c>
+      <c r="I18" s="3">
+        <v>3</v>
+      </c>
+      <c r="J18" s="3">
+        <v>2</v>
+      </c>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
+      <c r="C19" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" s="3">
+        <v>2</v>
+      </c>
+      <c r="E19" s="3">
+        <v>4</v>
+      </c>
+      <c r="F19" s="3">
+        <v>3</v>
+      </c>
+      <c r="G19" s="3">
+        <v>3</v>
+      </c>
+      <c r="H19" s="3">
+        <v>2</v>
+      </c>
+      <c r="I19" s="3">
+        <v>2</v>
+      </c>
+      <c r="J19" s="3">
+        <v>5</v>
+      </c>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="D19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="D21:L21"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2603,10 +2736,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A28" sqref="A28:B30"/>
+      <selection activeCell="A29" sqref="A29:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2618,7 +2751,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="9" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2628,221 +2761,232 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="12" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="13" t="s">
-        <v>169</v>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>170</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>173</v>
+      <c r="A28" s="13" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>173</v>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>178</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -2860,10 +3004,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A45" sqref="A45:B49"/>
+      <selection activeCell="A48" sqref="A48:B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2879,7 +3023,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="9" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2889,75 +3033,75 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="12" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2965,22 +3109,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2988,22 +3132,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3011,22 +3155,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>203</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3034,22 +3178,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3057,22 +3201,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3080,22 +3224,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>203</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3103,22 +3247,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>196</v>
+        <v>233</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3126,22 +3270,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3149,22 +3293,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>192</v>
+        <v>238</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>207</v>
+        <v>242</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>214</v>
+        <v>243</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3172,22 +3316,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>214</v>
+        <v>247</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3195,22 +3339,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="E26" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>237</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3218,22 +3362,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>203</v>
+        <v>238</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>219</v>
+        <v>253</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3241,22 +3385,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>201</v>
+        <v>13</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>226</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3264,22 +3408,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>203</v>
+        <v>258</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3287,22 +3431,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>223</v>
+        <v>263</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>226</v>
+        <v>267</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3310,22 +3454,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>209</v>
+        <v>258</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>202</v>
+        <v>272</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3333,19 +3477,19 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>209</v>
+        <v>258</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>254</v>
+        <v>221</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>196</v>
+        <v>275</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>257</v>
@@ -3356,22 +3500,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>203</v>
+        <v>258</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>197</v>
+        <v>247</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3379,22 +3523,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>240</v>
+        <v>281</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>214</v>
+        <v>282</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3402,22 +3546,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>241</v>
+        <v>205</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>266</v>
+        <v>208</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>219</v>
+        <v>285</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3425,22 +3569,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3448,22 +3592,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>209</v>
+        <v>238</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>233</v>
+        <v>289</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>260</v>
+        <v>281</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>202</v>
+        <v>285</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3471,22 +3615,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>218</v>
+        <v>271</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3494,22 +3638,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>275</v>
+        <v>199</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>221</v>
+        <v>295</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>213</v>
+        <v>250</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>197</v>
+        <v>267</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3517,22 +3661,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>277</v>
+        <v>296</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>201</v>
+        <v>233</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>280</v>
+        <v>243</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3540,67 +3684,136 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>241</v>
+        <v>199</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>282</v>
+        <v>300</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>283</v>
+        <v>219</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>284</v>
+        <v>237</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="3">
+        <v>27</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="3">
+        <v>28</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="13" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" t="s">
+      <c r="A44" s="3">
+        <v>29</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="G44" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="B45" s="14" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" t="s">
-        <v>286</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>173</v>
-      </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" t="s">
-        <v>287</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>173</v>
+      <c r="A47" s="13" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>173</v>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>310</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>311</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>312</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_029.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_029.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="213">
   <si>
     <t>ZESTAW ZADAŃ NR 29 - CZĘŚĆ 1</t>
   </si>
@@ -118,21 +118,6 @@
     <t>ŚREDNIA UCZNIA:</t>
   </si>
   <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(B17:B28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(C17:C28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(D17:D28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(E17:E28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(F17:F28);".";",")</t>
-  </si>
-  <si>
     <t>ZESTAW ZADAŃ NR 29 - CZĘŚĆ 2: ZAKUPY</t>
   </si>
   <si>
@@ -163,39 +148,21 @@
     <t>Farby plakatowe 12 kolorów</t>
   </si>
   <si>
-    <t>13,90</t>
-  </si>
-  <si>
     <t>Temperówka</t>
   </si>
   <si>
-    <t>1,50</t>
-  </si>
-  <si>
     <t>Pędzelek</t>
   </si>
   <si>
-    <t>6,10</t>
-  </si>
-  <si>
     <t>Ołówek HB</t>
   </si>
   <si>
-    <t>0,90</t>
-  </si>
-  <si>
     <t>Cyrkiel</t>
   </si>
   <si>
-    <t>9,40</t>
-  </si>
-  <si>
     <t>Linijka 30 cm</t>
   </si>
   <si>
-    <t>2,40</t>
-  </si>
-  <si>
     <t>SUMA:</t>
   </si>
   <si>
@@ -220,75 +187,30 @@
     <t>Zeszyt</t>
   </si>
   <si>
-    <t>9,32</t>
-  </si>
-  <si>
     <t>Ołówek</t>
   </si>
   <si>
-    <t>2,93</t>
-  </si>
-  <si>
     <t>Długopis</t>
   </si>
   <si>
-    <t>3,91</t>
-  </si>
-  <si>
     <t>Linijka</t>
   </si>
   <si>
-    <t>4,87</t>
-  </si>
-  <si>
     <t>Gumka</t>
   </si>
   <si>
-    <t>12,87</t>
-  </si>
-  <si>
     <t>Razem Styczeń:</t>
   </si>
   <si>
     <t>Luty:</t>
   </si>
   <si>
-    <t>11,06</t>
-  </si>
-  <si>
-    <t>13,41</t>
-  </si>
-  <si>
-    <t>15,81</t>
-  </si>
-  <si>
-    <t>12,53</t>
-  </si>
-  <si>
-    <t>25,86</t>
-  </si>
-  <si>
     <t>Razem Luty:</t>
   </si>
   <si>
     <t>Marzec:</t>
   </si>
   <si>
-    <t>8,22</t>
-  </si>
-  <si>
-    <t>13,22</t>
-  </si>
-  <si>
-    <t>6,74</t>
-  </si>
-  <si>
-    <t>7,98</t>
-  </si>
-  <si>
-    <t>9,21</t>
-  </si>
-  <si>
     <t>Razem Marzec:</t>
   </si>
   <si>
@@ -307,7 +229,7 @@
     <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
   </si>
   <si>
-    <t>3. Oblicz średnią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
+    <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
   </si>
   <si>
     <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
@@ -421,132 +343,87 @@
     <t>24.11.2001</t>
   </si>
   <si>
-    <t>12 900,00 zł</t>
-  </si>
-  <si>
     <t>Lena Maciejewska</t>
   </si>
   <si>
     <t>15.07.1998</t>
   </si>
   <si>
-    <t>6 058,00 zł</t>
-  </si>
-  <si>
     <t>Zuzanna Wilk</t>
   </si>
   <si>
     <t>01.06.1985</t>
   </si>
   <si>
-    <t>13 744,00 zł</t>
-  </si>
-  <si>
     <t>Oliwia Górska</t>
   </si>
   <si>
     <t>21.06.1993</t>
   </si>
   <si>
-    <t>8 864,00 zł</t>
-  </si>
-  <si>
     <t>15.04.1991</t>
   </si>
   <si>
-    <t>3 887,00 zł</t>
-  </si>
-  <si>
     <t>Filip Wiśniewski</t>
   </si>
   <si>
     <t>09.10.2001</t>
   </si>
   <si>
-    <t>11 067,00 zł</t>
-  </si>
-  <si>
     <t>Aleksander Kamiński</t>
   </si>
   <si>
     <t>06.01.1991</t>
   </si>
   <si>
-    <t>13 282,00 zł</t>
-  </si>
-  <si>
     <t>Aleksander Kowalczyk</t>
   </si>
   <si>
     <t>22.08.1980</t>
   </si>
   <si>
-    <t>10 575,00 zł</t>
-  </si>
-  <si>
     <t>Anna Borkowska</t>
   </si>
   <si>
     <t>20.10.1994</t>
   </si>
   <si>
-    <t>14 390,00 zł</t>
-  </si>
-  <si>
     <t>Amelia Wilk</t>
   </si>
   <si>
     <t>11.01.1983</t>
   </si>
   <si>
-    <t>6 617,00 zł</t>
-  </si>
-  <si>
     <t>Amelia Bednarska</t>
   </si>
   <si>
     <t>01.05.1980</t>
   </si>
   <si>
-    <t>11 205,00 zł</t>
-  </si>
-  <si>
     <t>Zuzanna Lis</t>
   </si>
   <si>
     <t>24.12.1992</t>
   </si>
   <si>
-    <t>14 291,00 zł</t>
-  </si>
-  <si>
     <t>Antoni Grabowski</t>
   </si>
   <si>
     <t>04.07.1998</t>
   </si>
   <si>
-    <t>11 932,00 zł</t>
-  </si>
-  <si>
     <t>Filip Kowalczyk</t>
   </si>
   <si>
     <t>24.08.1980</t>
   </si>
   <si>
-    <t>9 768,00 zł</t>
-  </si>
-  <si>
     <t>Szymon Nowak</t>
   </si>
   <si>
     <t>21.12.1991</t>
   </si>
   <si>
-    <t>7 146,00 zł</t>
-  </si>
-  <si>
     <t>OBLICZENIA:</t>
   </si>
   <si>
@@ -559,9 +436,6 @@
     <t>Najmniejsze zarobki:</t>
   </si>
   <si>
-    <t>=...</t>
-  </si>
-  <si>
     <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
@@ -622,12 +496,6 @@
     <t>Mikrofon studyjny</t>
   </si>
   <si>
-    <t>816,00 zł</t>
-  </si>
-  <si>
-    <t>1 069,00 zł</t>
-  </si>
-  <si>
     <t>Maria Dąbrowska</t>
   </si>
   <si>
@@ -640,12 +508,6 @@
     <t>Obudowa gamingowa</t>
   </si>
   <si>
-    <t>665,00 zł</t>
-  </si>
-  <si>
-    <t>924,00 zł</t>
-  </si>
-  <si>
     <t>Agnieszka Wojciechowska</t>
   </si>
   <si>
@@ -658,12 +520,6 @@
     <t>Powerbank 20000mAh</t>
   </si>
   <si>
-    <t>1 103,00 zł</t>
-  </si>
-  <si>
-    <t>1 313,00 zł</t>
-  </si>
-  <si>
     <t>Paweł Kwiatkowski</t>
   </si>
   <si>
@@ -673,12 +529,6 @@
     <t>Klawiatura mechaniczna</t>
   </si>
   <si>
-    <t>1 117,00 zł</t>
-  </si>
-  <si>
-    <t>1 262,00 zł</t>
-  </si>
-  <si>
     <t>Magdalena Szymańska</t>
   </si>
   <si>
@@ -688,12 +538,6 @@
     <t>Kamera internetowa</t>
   </si>
   <si>
-    <t>1 017,00 zł</t>
-  </si>
-  <si>
-    <t>1 292,00 zł</t>
-  </si>
-  <si>
     <t>Michał Jankowski</t>
   </si>
   <si>
@@ -703,36 +547,18 @@
     <t>Projektor multimedialny</t>
   </si>
   <si>
-    <t>1 367,00 zł</t>
-  </si>
-  <si>
-    <t>1 681,00 zł</t>
-  </si>
-  <si>
     <t>Andrzej Woźniak</t>
   </si>
   <si>
     <t>Smartwatch</t>
   </si>
   <si>
-    <t>681,00 zł</t>
-  </si>
-  <si>
-    <t>940,00 zł</t>
-  </si>
-  <si>
     <t>Monika Krawczyk</t>
   </si>
   <si>
     <t>wielkopolskie</t>
   </si>
   <si>
-    <t>1 176,00 zł</t>
-  </si>
-  <si>
-    <t>1 376,00 zł</t>
-  </si>
-  <si>
     <t>śląskie</t>
   </si>
   <si>
@@ -742,12 +568,6 @@
     <t>Monitor 24" 4K</t>
   </si>
   <si>
-    <t>1 340,00 zł</t>
-  </si>
-  <si>
-    <t>1 809,00 zł</t>
-  </si>
-  <si>
     <t>Barbara Kozłowska</t>
   </si>
   <si>
@@ -757,42 +577,18 @@
     <t>Pamięć RAM 16GB</t>
   </si>
   <si>
-    <t>678,00 zł</t>
-  </si>
-  <si>
-    <t>909,00 zł</t>
-  </si>
-  <si>
     <t>warmińsko-mazurskie</t>
   </si>
   <si>
-    <t>676,00 zł</t>
-  </si>
-  <si>
-    <t>933,00 zł</t>
-  </si>
-  <si>
     <t>Katarzyna Mazur</t>
   </si>
   <si>
-    <t>1 042,00 zł</t>
-  </si>
-  <si>
-    <t>1 448,00 zł</t>
-  </si>
-  <si>
     <t>podkarpackie</t>
   </si>
   <si>
     <t>Smart TV 55"</t>
   </si>
   <si>
-    <t>1 195,00 zł</t>
-  </si>
-  <si>
-    <t>1 661,00 zł</t>
-  </si>
-  <si>
     <t>lubuskie</t>
   </si>
   <si>
@@ -802,24 +598,12 @@
     <t>Procesor i5</t>
   </si>
   <si>
-    <t>1 316,00 zł</t>
-  </si>
-  <si>
-    <t>1 500,00 zł</t>
-  </si>
-  <si>
     <t>Ewa Kowalczyk</t>
   </si>
   <si>
     <t>Tablet 10"</t>
   </si>
   <si>
-    <t>1 427,00 zł</t>
-  </si>
-  <si>
-    <t>1 584,00 zł</t>
-  </si>
-  <si>
     <t>Piotr Wiśniewski</t>
   </si>
   <si>
@@ -829,121 +613,37 @@
     <t>Zasilacz 650W</t>
   </si>
   <si>
-    <t>1 116,00 zł</t>
-  </si>
-  <si>
-    <t>1 328,00 zł</t>
-  </si>
-  <si>
     <t>Tomasz Kamiński</t>
   </si>
   <si>
     <t>lubelskie</t>
   </si>
   <si>
-    <t>724,00 zł</t>
-  </si>
-  <si>
-    <t>840,00 zł</t>
-  </si>
-  <si>
     <t>Anna Nowak</t>
   </si>
   <si>
-    <t>1 433,00 zł</t>
-  </si>
-  <si>
-    <t>1 677,00 zł</t>
-  </si>
-  <si>
     <t>Drukarka laserowa</t>
   </si>
   <si>
-    <t>718,00 zł</t>
-  </si>
-  <si>
-    <t>991,00 zł</t>
-  </si>
-  <si>
     <t>Krzysztof Lewandowski</t>
   </si>
   <si>
     <t>małopolskie</t>
   </si>
   <si>
-    <t>1 314,00 zł</t>
-  </si>
-  <si>
-    <t>1 826,00 zł</t>
-  </si>
-  <si>
     <t>zachodniopomorskie</t>
   </si>
   <si>
     <t>Konsola do gier</t>
   </si>
   <si>
-    <t>1 370,00 zł</t>
-  </si>
-  <si>
-    <t>1 891,00 zł</t>
-  </si>
-  <si>
     <t>Dysk SSD 1TB</t>
   </si>
   <si>
-    <t>1 148,00 zł</t>
-  </si>
-  <si>
-    <t>1 573,00 zł</t>
-  </si>
-  <si>
-    <t>1 443,00 zł</t>
-  </si>
-  <si>
-    <t>1 804,00 zł</t>
-  </si>
-  <si>
-    <t>1 200,00 zł</t>
-  </si>
-  <si>
-    <t>1 428,00 zł</t>
-  </si>
-  <si>
     <t>Słuchawki bezprzewodowe</t>
   </si>
   <si>
-    <t>1 293,00 zł</t>
-  </si>
-  <si>
-    <t>1 422,00 zł</t>
-  </si>
-  <si>
-    <t>1 420,00 zł</t>
-  </si>
-  <si>
-    <t>1 704,00 zł</t>
-  </si>
-  <si>
-    <t>563,00 zł</t>
-  </si>
-  <si>
-    <t>625,00 zł</t>
-  </si>
-  <si>
-    <t>1 332,00 zł</t>
-  </si>
-  <si>
-    <t>1 585,00 zł</t>
-  </si>
-  <si>
     <t>Laptop Gaming i7</t>
-  </si>
-  <si>
-    <t>1 208,00 zł</t>
-  </si>
-  <si>
-    <t>1 413,00 zł</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -965,7 +665,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00&quot; zł&quot;"/>
+  </numFmts>
   <fonts count="5">
     <font>
       <b val="0"/>
@@ -1022,14 +724,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFD9EAD3"/>
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFF2CC"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
     <fill>
@@ -1040,8 +742,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -1072,30 +774,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="5" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1398,7 +1101,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="A16" sqref="A16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1473,25 +1176,25 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1514,7 +1217,7 @@
       <c r="F17" s="3">
         <v>3</v>
       </c>
-      <c r="G17" s="5"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
@@ -1535,7 +1238,7 @@
       <c r="F18" s="3">
         <v>3</v>
       </c>
-      <c r="G18" s="5"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
@@ -1556,7 +1259,7 @@
       <c r="F19" s="3">
         <v>4</v>
       </c>
-      <c r="G19" s="5"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
@@ -1577,7 +1280,7 @@
       <c r="F20" s="3">
         <v>5</v>
       </c>
-      <c r="G20" s="5"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="3" t="s">
@@ -1598,7 +1301,7 @@
       <c r="F21" s="3">
         <v>4</v>
       </c>
-      <c r="G21" s="5"/>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
@@ -1619,7 +1322,7 @@
       <c r="F22" s="3">
         <v>3</v>
       </c>
-      <c r="G22" s="5"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="3" t="s">
@@ -1640,7 +1343,7 @@
       <c r="F23" s="3">
         <v>3</v>
       </c>
-      <c r="G23" s="5"/>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="3" t="s">
@@ -1661,7 +1364,7 @@
       <c r="F24" s="3">
         <v>6</v>
       </c>
-      <c r="G24" s="5"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="3" t="s">
@@ -1682,7 +1385,7 @@
       <c r="F25" s="3">
         <v>3</v>
       </c>
-      <c r="G25" s="5"/>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="3" t="s">
@@ -1703,7 +1406,7 @@
       <c r="F26" s="3">
         <v>2</v>
       </c>
-      <c r="G26" s="5"/>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="3" t="s">
@@ -1724,7 +1427,7 @@
       <c r="F27" s="3">
         <v>6</v>
       </c>
-      <c r="G27" s="5"/>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="3" t="s">
@@ -1745,27 +1448,17 @@
       <c r="F28" s="3">
         <v>2</v>
       </c>
-      <c r="G28" s="5"/>
+      <c r="G28" s="4"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1799,7 +1492,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1819,7 +1512,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1829,29 +1522,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1859,99 +1552,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="C13" s="7">
+        <v>13.9</v>
       </c>
       <c r="D13" s="3">
         <v>8</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1.5</v>
       </c>
       <c r="D14" s="3">
         <v>3</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="C15" s="7">
+        <v>6.1</v>
       </c>
       <c r="D15" s="3">
         <v>7</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0.9</v>
       </c>
       <c r="D16" s="3">
         <v>10</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
+      </c>
+      <c r="C17" s="7">
+        <v>9.4</v>
       </c>
       <c r="D17" s="3">
         <v>1</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
+      </c>
+      <c r="C18" s="7">
+        <v>2.4</v>
       </c>
       <c r="D18" s="3">
         <v>3</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="E19" s="8"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1984,7 +1677,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2009,113 +1702,113 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="8" t="s">
-        <v>64</v>
+      <c r="A13" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>45</v>
+      <c r="A14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
+      </c>
+      <c r="B15" s="7">
+        <v>9.32</v>
       </c>
       <c r="C15" s="3">
         <v>45</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
+      </c>
+      <c r="B16" s="7">
+        <v>2.93</v>
       </c>
       <c r="C16" s="3">
         <v>30</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>70</v>
+        <v>56</v>
+      </c>
+      <c r="B17" s="7">
+        <v>3.91</v>
       </c>
       <c r="C17" s="3">
         <v>8</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
+      </c>
+      <c r="B18" s="7">
+        <v>4.87</v>
       </c>
       <c r="C18" s="3">
         <v>31</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>74</v>
+        <v>58</v>
+      </c>
+      <c r="B19" s="7">
+        <v>12.87</v>
       </c>
       <c r="C19" s="3">
         <v>9</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="8"/>
+      <c r="C20" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="14"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -2124,94 +1817,94 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="8" t="s">
-        <v>76</v>
+      <c r="A22" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>45</v>
+      <c r="A23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>77</v>
+        <v>54</v>
+      </c>
+      <c r="B24" s="7">
+        <v>11.06</v>
       </c>
       <c r="C24" s="3">
         <v>26</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>78</v>
+        <v>55</v>
+      </c>
+      <c r="B25" s="7">
+        <v>13.41</v>
       </c>
       <c r="C25" s="3">
         <v>40</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>79</v>
+        <v>56</v>
+      </c>
+      <c r="B26" s="7">
+        <v>15.81</v>
       </c>
       <c r="C26" s="3">
         <v>14</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>80</v>
+        <v>57</v>
+      </c>
+      <c r="B27" s="7">
+        <v>12.53</v>
       </c>
       <c r="C27" s="3">
         <v>22</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>81</v>
+        <v>58</v>
+      </c>
+      <c r="B28" s="7">
+        <v>25.86</v>
       </c>
       <c r="C28" s="3">
         <v>35</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="8"/>
+      <c r="C29" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="14"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -2220,98 +1913,98 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="8" t="s">
-        <v>83</v>
+      <c r="A31" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>45</v>
+      <c r="A32" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>84</v>
+        <v>54</v>
+      </c>
+      <c r="B33" s="7">
+        <v>8.22</v>
       </c>
       <c r="C33" s="3">
         <v>20</v>
       </c>
-      <c r="D33" s="3"/>
+      <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
+      </c>
+      <c r="B34" s="7">
+        <v>13.22</v>
       </c>
       <c r="C34" s="3">
         <v>30</v>
       </c>
-      <c r="D34" s="3"/>
+      <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>86</v>
+        <v>56</v>
+      </c>
+      <c r="B35" s="7">
+        <v>6.74</v>
       </c>
       <c r="C35" s="3">
         <v>45</v>
       </c>
-      <c r="D35" s="3"/>
+      <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>87</v>
+        <v>57</v>
+      </c>
+      <c r="B36" s="7">
+        <v>7.98</v>
       </c>
       <c r="C36" s="3">
         <v>48</v>
       </c>
-      <c r="D36" s="3"/>
+      <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>88</v>
+        <v>58</v>
+      </c>
+      <c r="B37" s="7">
+        <v>9.21</v>
       </c>
       <c r="C37" s="3">
         <v>22</v>
       </c>
-      <c r="D37" s="3"/>
+      <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D38" s="6"/>
+      <c r="C38" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="11"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D40" s="7"/>
+      <c r="C40" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="12"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2334,7 +2027,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A21" sqref="A21:L21"/>
+      <selection activeCell="A11" sqref="A11:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2354,90 +2047,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="9" t="s">
-        <v>91</v>
+      <c r="A1" s="15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="A11" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="H11" s="10" t="s">
+      <c r="G11" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>105</v>
+      <c r="J11" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="3"/>
+      <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="D12" s="3">
         <v>3</v>
@@ -2460,16 +2153,16 @@
       <c r="J12" s="3">
         <v>2</v>
       </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="3"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="D13" s="3">
         <v>4</v>
@@ -2492,16 +2185,16 @@
       <c r="J13" s="3">
         <v>4</v>
       </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="3"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="D14" s="3">
         <v>4</v>
@@ -2524,16 +2217,16 @@
       <c r="J14" s="3">
         <v>6</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="3"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="D15" s="3">
         <v>4</v>
@@ -2556,16 +2249,16 @@
       <c r="J15" s="3">
         <v>2</v>
       </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="3"/>
+      <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="D16" s="3">
         <v>5</v>
@@ -2588,16 +2281,16 @@
       <c r="J16" s="3">
         <v>4</v>
       </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="3"/>
+      <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="D17" s="3">
         <v>4</v>
@@ -2620,16 +2313,16 @@
       <c r="J17" s="3">
         <v>4</v>
       </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="3"/>
+      <c r="A18" s="4"/>
       <c r="B18" s="3" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="D18" s="3">
         <v>5</v>
@@ -2652,16 +2345,16 @@
       <c r="J18" s="3">
         <v>2</v>
       </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="3"/>
+      <c r="A19" s="4"/>
       <c r="B19" s="3" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="D19" s="3">
         <v>2</v>
@@ -2684,40 +2377,40 @@
       <c r="J19" s="3">
         <v>5</v>
       </c>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
+      <c r="A20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
+      <c r="A21" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2750,93 +2443,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="9" t="s">
-        <v>122</v>
+      <c r="A1" s="15" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>130</v>
+      <c r="A10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>133</v>
+        <v>106</v>
+      </c>
+      <c r="C11" s="7">
+        <v>12900</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>136</v>
+        <v>108</v>
+      </c>
+      <c r="C12" s="7">
+        <v>6058</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>139</v>
+        <v>110</v>
+      </c>
+      <c r="C13" s="7">
+        <v>13744</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>142</v>
+        <v>112</v>
+      </c>
+      <c r="C14" s="7">
+        <v>8864</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2844,150 +2537,144 @@
         <v>16</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>144</v>
+        <v>113</v>
+      </c>
+      <c r="C15" s="7">
+        <v>3887</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>147</v>
+        <v>115</v>
+      </c>
+      <c r="C16" s="7">
+        <v>11067</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>150</v>
+        <v>117</v>
+      </c>
+      <c r="C17" s="7">
+        <v>13282</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>153</v>
+        <v>119</v>
+      </c>
+      <c r="C18" s="7">
+        <v>10575</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>156</v>
+        <v>121</v>
+      </c>
+      <c r="C19" s="7">
+        <v>14390</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>159</v>
+        <v>123</v>
+      </c>
+      <c r="C20" s="7">
+        <v>6617</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>160</v>
+        <v>124</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>162</v>
+        <v>125</v>
+      </c>
+      <c r="C21" s="7">
+        <v>11205</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>165</v>
+        <v>127</v>
+      </c>
+      <c r="C22" s="7">
+        <v>14291</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>166</v>
+        <v>128</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>168</v>
+        <v>129</v>
+      </c>
+      <c r="C23" s="7">
+        <v>11932</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>169</v>
+        <v>130</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>171</v>
+        <v>131</v>
+      </c>
+      <c r="C24" s="7">
+        <v>9768</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>172</v>
+        <v>132</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>174</v>
+        <v>133</v>
+      </c>
+      <c r="C25" s="7">
+        <v>7146</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="13" t="s">
-        <v>175</v>
+      <c r="A28" s="17" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>176</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>179</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="B29" s="2"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>177</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>179</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="B30" s="6"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>178</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>179</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="B31" s="6"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -3022,86 +2709,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="9" t="s">
-        <v>180</v>
+      <c r="A1" s="15" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>181</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>182</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>183</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>184</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>185</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>186</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>187</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>188</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>189</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>197</v>
+      <c r="A15" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3109,22 +2796,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>198</v>
+        <v>156</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>201</v>
+        <v>157</v>
+      </c>
+      <c r="D16" s="7">
+        <v>816</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1069</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>202</v>
+        <v>158</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3132,22 +2819,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>207</v>
+        <v>161</v>
+      </c>
+      <c r="D17" s="7">
+        <v>665</v>
+      </c>
+      <c r="E17" s="7">
+        <v>924</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>208</v>
+        <v>162</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>209</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3155,22 +2842,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>210</v>
+        <v>164</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>213</v>
+        <v>165</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1103</v>
+      </c>
+      <c r="E18" s="7">
+        <v>1313</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>214</v>
+        <v>166</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3178,22 +2865,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>215</v>
+        <v>167</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>218</v>
+        <v>168</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1117</v>
+      </c>
+      <c r="E19" s="7">
+        <v>1262</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>219</v>
+        <v>169</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>220</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3201,22 +2888,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>223</v>
+        <v>171</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1017</v>
+      </c>
+      <c r="E20" s="7">
+        <v>1292</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>224</v>
+        <v>172</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>225</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3224,22 +2911,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>228</v>
+        <v>174</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1367</v>
+      </c>
+      <c r="E21" s="7">
+        <v>1681</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>229</v>
+        <v>175</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3247,22 +2934,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>198</v>
+        <v>156</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>232</v>
+        <v>176</v>
+      </c>
+      <c r="D22" s="7">
+        <v>681</v>
+      </c>
+      <c r="E22" s="7">
+        <v>940</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>233</v>
+        <v>177</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>234</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3270,22 +2957,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>215</v>
+        <v>167</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>236</v>
+        <v>161</v>
+      </c>
+      <c r="D23" s="7">
+        <v>1176</v>
+      </c>
+      <c r="E23" s="7">
+        <v>1376</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>219</v>
+        <v>169</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>237</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3293,22 +2980,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>241</v>
+        <v>181</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1340</v>
+      </c>
+      <c r="E24" s="7">
+        <v>1809</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>242</v>
+        <v>182</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>243</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3316,22 +3003,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>210</v>
+        <v>164</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>246</v>
+        <v>184</v>
+      </c>
+      <c r="D25" s="7">
+        <v>678</v>
+      </c>
+      <c r="E25" s="7">
+        <v>909</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>224</v>
+        <v>172</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>247</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3339,22 +3026,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>198</v>
+        <v>156</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>249</v>
+        <v>174</v>
+      </c>
+      <c r="D26" s="7">
+        <v>676</v>
+      </c>
+      <c r="E26" s="7">
+        <v>933</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>250</v>
+        <v>186</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>237</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3362,22 +3049,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>252</v>
+        <v>184</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1042</v>
+      </c>
+      <c r="E27" s="7">
+        <v>1448</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>224</v>
+        <v>172</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>253</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3385,22 +3072,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>198</v>
+        <v>156</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>256</v>
+        <v>188</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1195</v>
+      </c>
+      <c r="E28" s="7">
+        <v>1661</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>257</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3408,22 +3095,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>258</v>
+        <v>190</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>261</v>
+        <v>191</v>
+      </c>
+      <c r="D29" s="7">
+        <v>1316</v>
+      </c>
+      <c r="E29" s="7">
+        <v>1500</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>262</v>
+        <v>192</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>234</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3431,22 +3118,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>198</v>
+        <v>156</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>265</v>
+        <v>193</v>
+      </c>
+      <c r="D30" s="7">
+        <v>1427</v>
+      </c>
+      <c r="E30" s="7">
+        <v>1584</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>266</v>
+        <v>194</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>267</v>
+        <v>195</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3454,22 +3141,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>258</v>
+        <v>190</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>270</v>
+        <v>196</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1116</v>
+      </c>
+      <c r="E31" s="7">
+        <v>1328</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>271</v>
+        <v>197</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>272</v>
+        <v>198</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3477,22 +3164,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>258</v>
+        <v>190</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>274</v>
+        <v>171</v>
+      </c>
+      <c r="D32" s="7">
+        <v>724</v>
+      </c>
+      <c r="E32" s="7">
+        <v>840</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>275</v>
+        <v>199</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>257</v>
+        <v>189</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3500,22 +3187,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>258</v>
+        <v>190</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>277</v>
+        <v>191</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1433</v>
+      </c>
+      <c r="E33" s="7">
+        <v>1677</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>250</v>
+        <v>186</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>247</v>
+        <v>185</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3523,22 +3210,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>280</v>
+        <v>200</v>
+      </c>
+      <c r="D34" s="7">
+        <v>718</v>
+      </c>
+      <c r="E34" s="7">
+        <v>991</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>281</v>
+        <v>201</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>282</v>
+        <v>202</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3546,22 +3233,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>284</v>
+        <v>161</v>
+      </c>
+      <c r="D35" s="7">
+        <v>1314</v>
+      </c>
+      <c r="E35" s="7">
+        <v>1826</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>208</v>
+        <v>162</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>285</v>
+        <v>203</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3569,22 +3256,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>198</v>
+        <v>156</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>288</v>
+        <v>204</v>
+      </c>
+      <c r="D36" s="7">
+        <v>1370</v>
+      </c>
+      <c r="E36" s="7">
+        <v>1891</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>233</v>
+        <v>177</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>243</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3592,22 +3279,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>291</v>
+        <v>205</v>
+      </c>
+      <c r="D37" s="7">
+        <v>1148</v>
+      </c>
+      <c r="E37" s="7">
+        <v>1573</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>281</v>
+        <v>201</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>285</v>
+        <v>203</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3615,22 +3302,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>293</v>
+        <v>191</v>
+      </c>
+      <c r="D38" s="7">
+        <v>1443</v>
+      </c>
+      <c r="E38" s="7">
+        <v>1804</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>271</v>
+        <v>197</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>209</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3638,22 +3325,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>215</v>
+        <v>167</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>295</v>
+        <v>157</v>
+      </c>
+      <c r="D39" s="7">
+        <v>1200</v>
+      </c>
+      <c r="E39" s="7">
+        <v>1428</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>250</v>
+        <v>186</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>267</v>
+        <v>195</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3661,22 +3348,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>198</v>
+        <v>156</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>298</v>
+        <v>206</v>
+      </c>
+      <c r="D40" s="7">
+        <v>1293</v>
+      </c>
+      <c r="E40" s="7">
+        <v>1422</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>233</v>
+        <v>177</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>243</v>
+        <v>183</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3684,22 +3371,22 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>210</v>
+        <v>164</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>300</v>
+        <v>157</v>
+      </c>
+      <c r="D41" s="7">
+        <v>1420</v>
+      </c>
+      <c r="E41" s="7">
+        <v>1704</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>219</v>
+        <v>169</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>237</v>
+        <v>179</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3707,22 +3394,22 @@
         <v>27</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>210</v>
+        <v>164</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>302</v>
+        <v>157</v>
+      </c>
+      <c r="D42" s="7">
+        <v>563</v>
+      </c>
+      <c r="E42" s="7">
+        <v>625</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>208</v>
+        <v>162</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>247</v>
+        <v>185</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3730,22 +3417,22 @@
         <v>28</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>210</v>
+        <v>164</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>304</v>
+        <v>200</v>
+      </c>
+      <c r="D43" s="7">
+        <v>1332</v>
+      </c>
+      <c r="E43" s="7">
+        <v>1585</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>229</v>
+        <v>175</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>234</v>
+        <v>178</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -3753,68 +3440,58 @@
         <v>29</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>307</v>
+        <v>207</v>
+      </c>
+      <c r="D44" s="7">
+        <v>1208</v>
+      </c>
+      <c r="E44" s="7">
+        <v>1413</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>224</v>
+        <v>172</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>285</v>
+        <v>203</v>
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="13" t="s">
-        <v>175</v>
+      <c r="A47" s="17" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>308</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>179</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="B48" s="6"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>309</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>179</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="B49" s="6"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>310</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>179</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="B50" s="6"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>311</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>179</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="B51" s="6"/>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>312</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>179</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="B52" s="6"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_029.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_029.xlsx
@@ -12,7 +12,8 @@
     <sheet name="Zadanie 3 - Sprzedaż" sheetId="3" r:id="rId6"/>
     <sheet name="Zadanie 4 - Średnie klasy" sheetId="4" r:id="rId7"/>
     <sheet name="Zadanie 5 - Dane osobowe" sheetId="5" r:id="rId8"/>
-    <sheet name="Zadanie 6 - Analiza" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 6 - Godziny pracy" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 7 - Analiza" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="217">
   <si>
     <t>ZESTAW ZADAŃ NR 29 - CZĘŚĆ 1</t>
   </si>
@@ -61,369 +62,321 @@
     <t>Przedmiot</t>
   </si>
   <si>
+    <t>Amelia Malinowska</t>
+  </si>
+  <si>
+    <t>Amelia Jaworska</t>
+  </si>
+  <si>
+    <t>Szymon Zieliński</t>
+  </si>
+  <si>
+    <t>Antoni Grabowski</t>
+  </si>
+  <si>
+    <t>Oliwia Król</t>
+  </si>
+  <si>
+    <t>ŚREDNIA</t>
+  </si>
+  <si>
+    <t>Język polski</t>
+  </si>
+  <si>
+    <t>Język angielski</t>
+  </si>
+  <si>
+    <t>Matematyka</t>
+  </si>
+  <si>
+    <t>Historia</t>
+  </si>
+  <si>
+    <t>Przyroda</t>
+  </si>
+  <si>
+    <t>Geografia</t>
+  </si>
+  <si>
+    <t>Informatyka</t>
+  </si>
+  <si>
+    <t>Plastyka</t>
+  </si>
+  <si>
+    <t>Muzyka</t>
+  </si>
+  <si>
+    <t>Wychowanie fizyczne</t>
+  </si>
+  <si>
+    <t>Technika</t>
+  </si>
+  <si>
+    <t>Religia</t>
+  </si>
+  <si>
+    <t>ŚREDNIA UCZNIA:</t>
+  </si>
+  <si>
+    <t>ŚREDNIA KLASY:</t>
+  </si>
+  <si>
+    <t>ZESTAW ZADAŃ NR 29 - CZĘŚĆ 2: ZAKUPY</t>
+  </si>
+  <si>
+    <t>Data: __________________ (wpisz dzisiejszą datę)</t>
+  </si>
+  <si>
+    <t>Poniżej znajduje się lista zakupów. Twoim zadaniem jest obliczenie wartości "Razem" dla każdego produktu</t>
+  </si>
+  <si>
+    <t>(cena × ilość) oraz obliczenie sumy całkowitej. Wartości "Razem" i "SUMA:" musisz obliczyć samodzielnie.</t>
+  </si>
+  <si>
+    <t>L.p.</t>
+  </si>
+  <si>
+    <t>Produkt</t>
+  </si>
+  <si>
+    <t>Cena (zł)</t>
+  </si>
+  <si>
+    <t>Ilość sztuk</t>
+  </si>
+  <si>
+    <t>Razem (zł)</t>
+  </si>
+  <si>
+    <t>Gumka do mazania</t>
+  </si>
+  <si>
+    <t>Pędzelek</t>
+  </si>
+  <si>
+    <t>Ołówek HB</t>
+  </si>
+  <si>
+    <t>Linijka 30 cm</t>
+  </si>
+  <si>
+    <t>Temperówka</t>
+  </si>
+  <si>
+    <t>Farby plakatowe 12 kolorów</t>
+  </si>
+  <si>
+    <t>SUMA:</t>
+  </si>
+  <si>
+    <t>ZESTAW ZADAŃ NR 29 - CZĘŚĆ 3: SPRZEDAŻ MIESIĘCZNA</t>
+  </si>
+  <si>
+    <t>Poniżej znajduje się sprzedaż produktów w trzech miesiącach.</t>
+  </si>
+  <si>
+    <t>Oblicz "Razem" dla każdego produktu w każdym miesiącu (cena × ilość).</t>
+  </si>
+  <si>
+    <t>Następnie oblicz "Razem" dla każdego miesiąca (suma wszystkich produktów).</t>
+  </si>
+  <si>
+    <t>Na końcu oblicz sumę sprzedaży z wszystkich trzech miesięcy.</t>
+  </si>
+  <si>
+    <t>Styczeń:</t>
+  </si>
+  <si>
+    <t>Zeszyt</t>
+  </si>
+  <si>
+    <t>Ołówek</t>
+  </si>
+  <si>
+    <t>Długopis</t>
+  </si>
+  <si>
+    <t>Linijka</t>
+  </si>
+  <si>
+    <t>Gumka</t>
+  </si>
+  <si>
+    <t>Razem Styczeń:</t>
+  </si>
+  <si>
+    <t>Luty:</t>
+  </si>
+  <si>
+    <t>Razem Luty:</t>
+  </si>
+  <si>
+    <t>Marzec:</t>
+  </si>
+  <si>
+    <t>Razem Marzec:</t>
+  </si>
+  <si>
+    <t>SUMA z 3 miesięcy:</t>
+  </si>
+  <si>
+    <t>Średnia z 3 miesięcy:</t>
+  </si>
+  <si>
+    <t>ZADANIE 4: ŚREDNIE KLASY</t>
+  </si>
+  <si>
+    <t>Instrukcja:</t>
+  </si>
+  <si>
+    <t>1. W tabeli poniżej znajdują się oceny uczniów z różnych przedmiotów.</t>
+  </si>
+  <si>
+    <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
+  </si>
+  <si>
+    <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
+  </si>
+  <si>
+    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,75, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
+  </si>
+  <si>
+    <t>5. Oblicz średnią ocen dla każdego przedmiotu i wpisz w wierszu "Średnia przedmiotu:".</t>
+  </si>
+  <si>
+    <t>6. Oblicz średnią ocen całej klasy (średnią wszystkich ocen w tabeli) i wpisz w komórce obok "Średnia klasy:".</t>
+  </si>
+  <si>
+    <t>LP</t>
+  </si>
+  <si>
+    <t>Imię</t>
+  </si>
+  <si>
+    <t>Nazwisko</t>
+  </si>
+  <si>
+    <t>Biologia</t>
+  </si>
+  <si>
+    <t>Chemia</t>
+  </si>
+  <si>
+    <t>Średnia ucznia</t>
+  </si>
+  <si>
+    <t>Czy śrecnia powyżej 4,75?</t>
+  </si>
+  <si>
+    <t>Jakub</t>
+  </si>
+  <si>
+    <t>Wojciechowski</t>
+  </si>
+  <si>
+    <t>Lena</t>
+  </si>
+  <si>
+    <t>Kaźmierczak</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Jaworska</t>
+  </si>
+  <si>
+    <t>Wojciech</t>
+  </si>
+  <si>
+    <t>Wójcik</t>
+  </si>
+  <si>
+    <t>Oliwia</t>
+  </si>
+  <si>
+    <t>Piekarska</t>
+  </si>
+  <si>
+    <t>Aleksander</t>
+  </si>
+  <si>
+    <t>Krawczyk</t>
+  </si>
+  <si>
+    <t>Średnia przedmiotu:</t>
+  </si>
+  <si>
+    <t>Średnia klasy:</t>
+  </si>
+  <si>
+    <t>ZADANIE 5 - DANE OSOBOWE</t>
+  </si>
+  <si>
+    <t>1. Rozdziel kolumnę "Imię i nazwisko" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
+  </si>
+  <si>
+    <t>2. Dodaj kolumnę "Lp." i ponumeruj wszystkie wiersze</t>
+  </si>
+  <si>
+    <t>3. Oblicz ilość osób urodzonych w 1998 roku (funkcja LICZ.JEŻELI)</t>
+  </si>
+  <si>
+    <t>4. Znajdź największe zarobki (funkcja MAKS)</t>
+  </si>
+  <si>
+    <t>5. Znajdź najmniejsze zarobki (funkcja MIN)</t>
+  </si>
+  <si>
+    <t>Imię i nazwisko</t>
+  </si>
+  <si>
+    <t>Data urodzenia</t>
+  </si>
+  <si>
+    <t>Zarobki (zł)</t>
+  </si>
+  <si>
+    <t>Wojciech Wiśniewski</t>
+  </si>
+  <si>
+    <t>Oliwia Rogalska</t>
+  </si>
+  <si>
+    <t>Kacper Kozłowski</t>
+  </si>
+  <si>
+    <t>Adam Kowalski</t>
+  </si>
+  <si>
+    <t>Julia Rogalska</t>
+  </si>
+  <si>
+    <t>Adam Krawczyk</t>
+  </si>
+  <si>
+    <t>Antoni Lewandowski</t>
+  </si>
+  <si>
+    <t>Filip Mazur</t>
+  </si>
+  <si>
+    <t>Zuzanna Jaworska</t>
+  </si>
+  <si>
+    <t>Natalia Rogalska</t>
+  </si>
+  <si>
+    <t>Mikołaj Wójcik</t>
+  </si>
+  <si>
+    <t>Antoni Szymański</t>
+  </si>
+  <si>
     <t>Jan Kowalski</t>
   </si>
   <si>
-    <t>Lena Rogalska</t>
-  </si>
-  <si>
-    <t>Jan Nowak</t>
-  </si>
-  <si>
-    <t>Emilia Zawadzka</t>
-  </si>
-  <si>
-    <t>Filip Grabowski</t>
-  </si>
-  <si>
-    <t>ŚREDNIA</t>
-  </si>
-  <si>
-    <t>Język polski</t>
-  </si>
-  <si>
-    <t>Język angielski</t>
-  </si>
-  <si>
-    <t>Matematyka</t>
-  </si>
-  <si>
-    <t>Historia</t>
-  </si>
-  <si>
-    <t>Przyroda</t>
-  </si>
-  <si>
-    <t>Geografia</t>
-  </si>
-  <si>
-    <t>Informatyka</t>
-  </si>
-  <si>
-    <t>Plastyka</t>
-  </si>
-  <si>
-    <t>Muzyka</t>
-  </si>
-  <si>
-    <t>Wychowanie fizyczne</t>
-  </si>
-  <si>
-    <t>Technika</t>
-  </si>
-  <si>
-    <t>Religia</t>
-  </si>
-  <si>
-    <t>ŚREDNIA UCZNIA:</t>
-  </si>
-  <si>
-    <t>ZESTAW ZADAŃ NR 29 - CZĘŚĆ 2: ZAKUPY</t>
-  </si>
-  <si>
-    <t>Data: __________________ (wpisz dzisiejszą datę)</t>
-  </si>
-  <si>
-    <t>Poniżej znajduje się lista zakupów. Twoim zadaniem jest obliczenie wartości "Razem" dla każdego produktu</t>
-  </si>
-  <si>
-    <t>(cena × ilość) oraz obliczenie sumy całkowitej. Wartości "Razem" i "SUMA:" musisz obliczyć samodzielnie.</t>
-  </si>
-  <si>
-    <t>L.p.</t>
-  </si>
-  <si>
-    <t>Produkt</t>
-  </si>
-  <si>
-    <t>Cena (zł)</t>
-  </si>
-  <si>
-    <t>Ilość sztuk</t>
-  </si>
-  <si>
-    <t>Razem (zł)</t>
-  </si>
-  <si>
-    <t>Farby plakatowe 12 kolorów</t>
-  </si>
-  <si>
-    <t>Temperówka</t>
-  </si>
-  <si>
-    <t>Pędzelek</t>
-  </si>
-  <si>
-    <t>Ołówek HB</t>
-  </si>
-  <si>
-    <t>Cyrkiel</t>
-  </si>
-  <si>
-    <t>Linijka 30 cm</t>
-  </si>
-  <si>
-    <t>SUMA:</t>
-  </si>
-  <si>
-    <t>ZESTAW ZADAŃ NR 29 - CZĘŚĆ 3: SPRZEDAŻ MIESIĘCZNA</t>
-  </si>
-  <si>
-    <t>Poniżej znajduje się sprzedaż produktów w trzech miesiącach.</t>
-  </si>
-  <si>
-    <t>Oblicz "Razem" dla każdego produktu w każdym miesiącu (cena × ilość).</t>
-  </si>
-  <si>
-    <t>Następnie oblicz "Razem" dla każdego miesiąca (suma wszystkich produktów).</t>
-  </si>
-  <si>
-    <t>Na końcu oblicz sumę sprzedaży z wszystkich trzech miesięcy.</t>
-  </si>
-  <si>
-    <t>Styczeń:</t>
-  </si>
-  <si>
-    <t>Zeszyt</t>
-  </si>
-  <si>
-    <t>Ołówek</t>
-  </si>
-  <si>
-    <t>Długopis</t>
-  </si>
-  <si>
-    <t>Linijka</t>
-  </si>
-  <si>
-    <t>Gumka</t>
-  </si>
-  <si>
-    <t>Razem Styczeń:</t>
-  </si>
-  <si>
-    <t>Luty:</t>
-  </si>
-  <si>
-    <t>Razem Luty:</t>
-  </si>
-  <si>
-    <t>Marzec:</t>
-  </si>
-  <si>
-    <t>Razem Marzec:</t>
-  </si>
-  <si>
-    <t>SUMA z 3 miesięcy:</t>
-  </si>
-  <si>
-    <t>ZADANIE 4: ŚREDNIE KLASY</t>
-  </si>
-  <si>
-    <t>Instrukcja:</t>
-  </si>
-  <si>
-    <t>1. W tabeli poniżej znajdują się oceny uczniów z różnych przedmiotów.</t>
-  </si>
-  <si>
-    <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
-  </si>
-  <si>
-    <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
-  </si>
-  <si>
-    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
-  </si>
-  <si>
-    <t>5. Oblicz średnią ocen dla każdego przedmiotu i wpisz w wierszu "Średnia przedmiotu:".</t>
-  </si>
-  <si>
-    <t>6. Oblicz średnią ocen całej klasy (średnią wszystkich ocen w tabeli) i wpisz w komórce obok "Średnia klasy:".</t>
-  </si>
-  <si>
-    <t>LP</t>
-  </si>
-  <si>
-    <t>Imię</t>
-  </si>
-  <si>
-    <t>Nazwisko</t>
-  </si>
-  <si>
-    <t>Biologia</t>
-  </si>
-  <si>
-    <t>Chemia</t>
-  </si>
-  <si>
-    <t>Średnia ucznia</t>
-  </si>
-  <si>
-    <t>Czy pasek?</t>
-  </si>
-  <si>
-    <t>Julia</t>
-  </si>
-  <si>
-    <t>Wilk</t>
-  </si>
-  <si>
-    <t>Emilia</t>
-  </si>
-  <si>
-    <t>Lis</t>
-  </si>
-  <si>
-    <t>Aleksander</t>
-  </si>
-  <si>
-    <t>Zieliński</t>
-  </si>
-  <si>
-    <t>Szymon</t>
-  </si>
-  <si>
-    <t>Kowalczyk</t>
-  </si>
-  <si>
-    <t>Jan</t>
-  </si>
-  <si>
-    <t>Szymański</t>
-  </si>
-  <si>
-    <t>Lewandowski</t>
-  </si>
-  <si>
-    <t>Wójcik</t>
-  </si>
-  <si>
-    <t>Natalia</t>
-  </si>
-  <si>
-    <t>Urbaniak</t>
-  </si>
-  <si>
-    <t>Średnia przedmiotu:</t>
-  </si>
-  <si>
-    <t>Średnia klasy:</t>
-  </si>
-  <si>
-    <t>ZADANIE 5 - DANE OSOBOWE</t>
-  </si>
-  <si>
-    <t>1. Rozdziel kolumnę "Imię i nazwisko" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
-  </si>
-  <si>
-    <t>2. Dodaj kolumnę "Lp." i ponumeruj wszystkie wiersze</t>
-  </si>
-  <si>
-    <t>3. Oblicz ilość osób urodzonych w 1998 roku (funkcja LICZ.JEŻELI)</t>
-  </si>
-  <si>
-    <t>4. Znajdź największe zarobki (funkcja MAKS)</t>
-  </si>
-  <si>
-    <t>5. Znajdź najmniejsze zarobki (funkcja MIN)</t>
-  </si>
-  <si>
-    <t>Imię i nazwisko</t>
-  </si>
-  <si>
-    <t>Data urodzenia</t>
-  </si>
-  <si>
-    <t>Zarobki (zł)</t>
-  </si>
-  <si>
-    <t>Julia Zawadzka</t>
-  </si>
-  <si>
-    <t>24.11.2001</t>
-  </si>
-  <si>
-    <t>Lena Maciejewska</t>
-  </si>
-  <si>
-    <t>15.07.1998</t>
-  </si>
-  <si>
-    <t>Zuzanna Wilk</t>
-  </si>
-  <si>
-    <t>01.06.1985</t>
-  </si>
-  <si>
-    <t>Oliwia Górska</t>
-  </si>
-  <si>
-    <t>21.06.1993</t>
-  </si>
-  <si>
-    <t>15.04.1991</t>
-  </si>
-  <si>
-    <t>Filip Wiśniewski</t>
-  </si>
-  <si>
-    <t>09.10.2001</t>
-  </si>
-  <si>
-    <t>Aleksander Kamiński</t>
-  </si>
-  <si>
-    <t>06.01.1991</t>
-  </si>
-  <si>
-    <t>Aleksander Kowalczyk</t>
-  </si>
-  <si>
-    <t>22.08.1980</t>
-  </si>
-  <si>
-    <t>Anna Borkowska</t>
-  </si>
-  <si>
-    <t>20.10.1994</t>
-  </si>
-  <si>
-    <t>Amelia Wilk</t>
-  </si>
-  <si>
-    <t>11.01.1983</t>
-  </si>
-  <si>
-    <t>Amelia Bednarska</t>
-  </si>
-  <si>
-    <t>01.05.1980</t>
-  </si>
-  <si>
-    <t>Zuzanna Lis</t>
-  </si>
-  <si>
-    <t>24.12.1992</t>
-  </si>
-  <si>
-    <t>Antoni Grabowski</t>
-  </si>
-  <si>
-    <t>04.07.1998</t>
-  </si>
-  <si>
-    <t>Filip Kowalczyk</t>
-  </si>
-  <si>
-    <t>24.08.1980</t>
-  </si>
-  <si>
-    <t>Szymon Nowak</t>
-  </si>
-  <si>
-    <t>21.12.1991</t>
-  </si>
-  <si>
     <t>OBLICZENIA:</t>
   </si>
   <si>
@@ -436,7 +389,73 @@
     <t>Najmniejsze zarobki:</t>
   </si>
   <si>
-    <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
+    <t>ZADANIE 6 - DANE OSOBOWE I ILOŚĆ GODZIN PRACY</t>
+  </si>
+  <si>
+    <t>1. Oblicz ilość przepracowanych godzin dla każdej osoby</t>
+  </si>
+  <si>
+    <t>2. Podaj zarobki dla każdej osoby (stawka godzinowa × ilość przepracowanych godzin)</t>
+  </si>
+  <si>
+    <t>Stawka godzinowa (zł/h):</t>
+  </si>
+  <si>
+    <t>Ilość przepracowanych godzin</t>
+  </si>
+  <si>
+    <t>Filip Piotrowski</t>
+  </si>
+  <si>
+    <t>Aleksander Kaczmarek</t>
+  </si>
+  <si>
+    <t>Jakub Szymański</t>
+  </si>
+  <si>
+    <t>Antoni Piotrowski</t>
+  </si>
+  <si>
+    <t>Aleksander Nowak</t>
+  </si>
+  <si>
+    <t>Lena Jaworska</t>
+  </si>
+  <si>
+    <t>Julia Czarnecka</t>
+  </si>
+  <si>
+    <t>Adam Kwiatkowski</t>
+  </si>
+  <si>
+    <t>Julia Jaworska</t>
+  </si>
+  <si>
+    <t>Adam Kaczmarek</t>
+  </si>
+  <si>
+    <t>Mikołaj Wojciechowski</t>
+  </si>
+  <si>
+    <t>Jakub Mazur</t>
+  </si>
+  <si>
+    <t>Maja Maciejewska</t>
+  </si>
+  <si>
+    <t>Kacper Grabowski</t>
+  </si>
+  <si>
+    <t>Hanna Piekarska</t>
+  </si>
+  <si>
+    <t>Julia Borkowska</t>
+  </si>
+  <si>
+    <t>Emilia Olszewska</t>
+  </si>
+  <si>
+    <t>ZADANIE 7 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
     <t>1. Rozbij kolumnę "Sprzedawca" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
@@ -490,160 +509,154 @@
     <t>Województwo</t>
   </si>
   <si>
+    <t>luty</t>
+  </si>
+  <si>
+    <t>Karta graficzna RTX</t>
+  </si>
+  <si>
+    <t>Barbara Kozłowska</t>
+  </si>
+  <si>
+    <t>mazowieckie</t>
+  </si>
+  <si>
+    <t>czerwiec</t>
+  </si>
+  <si>
+    <t>Laptop Gaming i7</t>
+  </si>
+  <si>
+    <t>Anna Nowak</t>
+  </si>
+  <si>
+    <t>podlaskie</t>
+  </si>
+  <si>
     <t>kwiecień</t>
   </si>
   <si>
+    <t>Głośnik Bluetooth</t>
+  </si>
+  <si>
+    <t>Katarzyna Mazur</t>
+  </si>
+  <si>
+    <t>łódzkie</t>
+  </si>
+  <si>
+    <t>Słuchawki bezprzewodowe</t>
+  </si>
+  <si>
+    <t>Ewa Kowalczyk</t>
+  </si>
+  <si>
+    <t>maj</t>
+  </si>
+  <si>
+    <t>Marcin Zieliński</t>
+  </si>
+  <si>
+    <t>Projektor multimedialny</t>
+  </si>
+  <si>
+    <t>Piotr Wiśniewski</t>
+  </si>
+  <si>
+    <t>małopolskie</t>
+  </si>
+  <si>
+    <t>marzec</t>
+  </si>
+  <si>
+    <t>Zasilacz 650W</t>
+  </si>
+  <si>
+    <t>Tomasz Kamiński</t>
+  </si>
+  <si>
+    <t>kujawsko-pomorskie</t>
+  </si>
+  <si>
+    <t>Drukarka laserowa</t>
+  </si>
+  <si>
+    <t>Powerbank 20000mAh</t>
+  </si>
+  <si>
+    <t>Michał Jankowski</t>
+  </si>
+  <si>
+    <t>opolskie</t>
+  </si>
+  <si>
     <t>Mikrofon studyjny</t>
   </si>
   <si>
     <t>Maria Dąbrowska</t>
   </si>
   <si>
-    <t>mazowieckie</t>
-  </si>
-  <si>
-    <t>luty</t>
+    <t>Paweł Kwiatkowski</t>
+  </si>
+  <si>
+    <t>śląskie</t>
+  </si>
+  <si>
+    <t>Płyta główna</t>
+  </si>
+  <si>
+    <t>Monika Krawczyk</t>
+  </si>
+  <si>
+    <t>lubuskie</t>
+  </si>
+  <si>
+    <t>Monitor 24" 4K</t>
+  </si>
+  <si>
+    <t>Smartwatch</t>
+  </si>
+  <si>
+    <t>warmińsko-mazurskie</t>
+  </si>
+  <si>
+    <t>podkarpackie</t>
+  </si>
+  <si>
+    <t>Smart TV 55"</t>
+  </si>
+  <si>
+    <t>wielkopolskie</t>
+  </si>
+  <si>
+    <t>Tablet 10"</t>
+  </si>
+  <si>
+    <t>Magdalena Szymańska</t>
+  </si>
+  <si>
+    <t>Procesor i5</t>
+  </si>
+  <si>
+    <t>Agnieszka Wojciechowska</t>
+  </si>
+  <si>
+    <t>Router Wi-Fi 6</t>
+  </si>
+  <si>
+    <t>styczeń</t>
+  </si>
+  <si>
+    <t>Andrzej Woźniak</t>
   </si>
   <si>
     <t>Obudowa gamingowa</t>
   </si>
   <si>
-    <t>Agnieszka Wojciechowska</t>
-  </si>
-  <si>
-    <t>świętokrzyskie</t>
-  </si>
-  <si>
-    <t>maj</t>
-  </si>
-  <si>
-    <t>Powerbank 20000mAh</t>
-  </si>
-  <si>
-    <t>Paweł Kwiatkowski</t>
-  </si>
-  <si>
-    <t>styczeń</t>
-  </si>
-  <si>
-    <t>Klawiatura mechaniczna</t>
-  </si>
-  <si>
-    <t>Magdalena Szymańska</t>
-  </si>
-  <si>
-    <t>podlaskie</t>
-  </si>
-  <si>
-    <t>Kamera internetowa</t>
-  </si>
-  <si>
-    <t>Michał Jankowski</t>
-  </si>
-  <si>
-    <t>łódzkie</t>
-  </si>
-  <si>
-    <t>Projektor multimedialny</t>
-  </si>
-  <si>
-    <t>Andrzej Woźniak</t>
-  </si>
-  <si>
-    <t>Smartwatch</t>
-  </si>
-  <si>
-    <t>Monika Krawczyk</t>
-  </si>
-  <si>
-    <t>wielkopolskie</t>
-  </si>
-  <si>
-    <t>śląskie</t>
-  </si>
-  <si>
-    <t>czerwiec</t>
-  </si>
-  <si>
-    <t>Monitor 24" 4K</t>
-  </si>
-  <si>
-    <t>Barbara Kozłowska</t>
-  </si>
-  <si>
-    <t>kujawsko-pomorskie</t>
-  </si>
-  <si>
-    <t>Pamięć RAM 16GB</t>
-  </si>
-  <si>
-    <t>warmińsko-mazurskie</t>
-  </si>
-  <si>
-    <t>Katarzyna Mazur</t>
-  </si>
-  <si>
-    <t>podkarpackie</t>
-  </si>
-  <si>
-    <t>Smart TV 55"</t>
-  </si>
-  <si>
-    <t>lubuskie</t>
-  </si>
-  <si>
-    <t>marzec</t>
-  </si>
-  <si>
-    <t>Procesor i5</t>
-  </si>
-  <si>
-    <t>Ewa Kowalczyk</t>
-  </si>
-  <si>
-    <t>Tablet 10"</t>
-  </si>
-  <si>
-    <t>Piotr Wiśniewski</t>
-  </si>
-  <si>
-    <t>opolskie</t>
-  </si>
-  <si>
-    <t>Zasilacz 650W</t>
-  </si>
-  <si>
-    <t>Tomasz Kamiński</t>
-  </si>
-  <si>
     <t>lubelskie</t>
   </si>
   <si>
-    <t>Anna Nowak</t>
-  </si>
-  <si>
-    <t>Drukarka laserowa</t>
-  </si>
-  <si>
-    <t>Krzysztof Lewandowski</t>
-  </si>
-  <si>
-    <t>małopolskie</t>
-  </si>
-  <si>
-    <t>zachodniopomorskie</t>
-  </si>
-  <si>
-    <t>Konsola do gier</t>
-  </si>
-  <si>
-    <t>Dysk SSD 1TB</t>
-  </si>
-  <si>
-    <t>Słuchawki bezprzewodowe</t>
-  </si>
-  <si>
-    <t>Laptop Gaming i7</t>
+    <t>pomorskie</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -715,7 +728,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -738,12 +751,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9EAD3"/>
         <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -774,7 +781,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -785,13 +792,12 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -1098,7 +1104,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A16" sqref="A16:G16"/>
@@ -1203,19 +1209,19 @@
         <v>19</v>
       </c>
       <c r="B17" s="3">
+        <v>4</v>
+      </c>
+      <c r="C17" s="3">
+        <v>5</v>
+      </c>
+      <c r="D17" s="3">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3">
         <v>3</v>
       </c>
-      <c r="C17" s="3">
-        <v>2</v>
-      </c>
-      <c r="D17" s="3">
-        <v>4</v>
-      </c>
-      <c r="E17" s="3">
-        <v>6</v>
-      </c>
       <c r="F17" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G17" s="4"/>
     </row>
@@ -1224,7 +1230,7 @@
         <v>20</v>
       </c>
       <c r="B18" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C18" s="3">
         <v>5</v>
@@ -1233,10 +1239,10 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>3</v>
+      </c>
+      <c r="F18" s="3">
         <v>2</v>
-      </c>
-      <c r="F18" s="3">
-        <v>3</v>
       </c>
       <c r="G18" s="4"/>
     </row>
@@ -1245,19 +1251,19 @@
         <v>21</v>
       </c>
       <c r="B19" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C19" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E19" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F19" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G19" s="4"/>
     </row>
@@ -1266,19 +1272,19 @@
         <v>22</v>
       </c>
       <c r="B20" s="3">
+        <v>6</v>
+      </c>
+      <c r="C20" s="3">
+        <v>2</v>
+      </c>
+      <c r="D20" s="3">
+        <v>4</v>
+      </c>
+      <c r="E20" s="3">
         <v>5</v>
       </c>
-      <c r="C20" s="3">
-        <v>5</v>
-      </c>
-      <c r="D20" s="3">
-        <v>6</v>
-      </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2</v>
-      </c>
-      <c r="F20" s="3">
-        <v>5</v>
       </c>
       <c r="G20" s="4"/>
     </row>
@@ -1287,19 +1293,19 @@
         <v>23</v>
       </c>
       <c r="B21" s="3">
+        <v>6</v>
+      </c>
+      <c r="C21" s="3">
+        <v>5</v>
+      </c>
+      <c r="D21" s="3">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3">
+        <v>6</v>
+      </c>
+      <c r="F21" s="3">
         <v>3</v>
-      </c>
-      <c r="C21" s="3">
-        <v>6</v>
-      </c>
-      <c r="D21" s="3">
-        <v>6</v>
-      </c>
-      <c r="E21" s="3">
-        <v>5</v>
-      </c>
-      <c r="F21" s="3">
-        <v>4</v>
       </c>
       <c r="G21" s="4"/>
     </row>
@@ -1308,19 +1314,19 @@
         <v>24</v>
       </c>
       <c r="B22" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C22" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" s="3">
         <v>3</v>
       </c>
       <c r="E22" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F22" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G22" s="4"/>
     </row>
@@ -1329,16 +1335,16 @@
         <v>25</v>
       </c>
       <c r="B23" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C23" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D23" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E23" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F23" s="3">
         <v>3</v>
@@ -1350,19 +1356,19 @@
         <v>26</v>
       </c>
       <c r="B24" s="3">
+        <v>3</v>
+      </c>
+      <c r="C24" s="3">
         <v>4</v>
-      </c>
-      <c r="C24" s="3">
-        <v>3</v>
       </c>
       <c r="D24" s="3">
         <v>4</v>
       </c>
       <c r="E24" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F24" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G24" s="4"/>
     </row>
@@ -1371,16 +1377,16 @@
         <v>27</v>
       </c>
       <c r="B25" s="3">
+        <v>2</v>
+      </c>
+      <c r="C25" s="3">
+        <v>6</v>
+      </c>
+      <c r="D25" s="3">
         <v>5</v>
       </c>
-      <c r="C25" s="3">
-        <v>5</v>
-      </c>
-      <c r="D25" s="3">
-        <v>3</v>
-      </c>
       <c r="E25" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F25" s="3">
         <v>3</v>
@@ -1392,19 +1398,19 @@
         <v>28</v>
       </c>
       <c r="B26" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C26" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E26" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G26" s="4"/>
     </row>
@@ -1413,19 +1419,19 @@
         <v>29</v>
       </c>
       <c r="B27" s="3">
+        <v>3</v>
+      </c>
+      <c r="C27" s="3">
         <v>5</v>
       </c>
-      <c r="C27" s="3">
+      <c r="D27" s="3">
+        <v>6</v>
+      </c>
+      <c r="E27" s="3">
         <v>4</v>
       </c>
-      <c r="D27" s="3">
-        <v>3</v>
-      </c>
-      <c r="E27" s="3">
-        <v>6</v>
-      </c>
       <c r="F27" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G27" s="4"/>
     </row>
@@ -1440,13 +1446,13 @@
         <v>6</v>
       </c>
       <c r="D28" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E28" s="3">
         <v>5</v>
       </c>
       <c r="F28" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G28" s="4"/>
     </row>
@@ -1459,6 +1465,12 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1492,7 +1504,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1512,7 +1524,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1522,29 +1534,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1552,99 +1564,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="7">
-        <v>13.9</v>
+        <v>42</v>
+      </c>
+      <c r="C13" s="8">
+        <v>1.3</v>
       </c>
       <c r="D13" s="3">
-        <v>8</v>
-      </c>
-      <c r="E13" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="7">
-        <v>1.5</v>
+        <v>43</v>
+      </c>
+      <c r="C14" s="8">
+        <v>4.8</v>
       </c>
       <c r="D14" s="3">
-        <v>3</v>
-      </c>
-      <c r="E14" s="8"/>
+        <v>6</v>
+      </c>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="7">
-        <v>6.1</v>
+        <v>44</v>
+      </c>
+      <c r="C15" s="8">
+        <v>1</v>
       </c>
       <c r="D15" s="3">
-        <v>7</v>
-      </c>
-      <c r="E15" s="8"/>
+        <v>6</v>
+      </c>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="7">
-        <v>0.9</v>
+        <v>45</v>
+      </c>
+      <c r="C16" s="8">
+        <v>3.5</v>
       </c>
       <c r="D16" s="3">
-        <v>10</v>
-      </c>
-      <c r="E16" s="8"/>
+        <v>3</v>
+      </c>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="7">
-        <v>9.4</v>
+        <v>46</v>
+      </c>
+      <c r="C17" s="8">
+        <v>3.4</v>
       </c>
       <c r="D17" s="3">
-        <v>1</v>
-      </c>
-      <c r="E17" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="7">
-        <v>2.4</v>
+        <v>47</v>
+      </c>
+      <c r="C18" s="8">
+        <v>20.9</v>
       </c>
       <c r="D18" s="3">
-        <v>3</v>
-      </c>
-      <c r="E18" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="E18" s="9"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="E19" s="9"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1661,10 +1673,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A13" sqref="A13:D37"/>
+      <selection activeCell="A13" sqref="A13:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1677,7 +1689,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1702,27 +1714,27 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="13" t="s">
-        <v>53</v>
+      <c r="A13" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1730,85 +1742,85 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="7">
-        <v>9.32</v>
+        <v>55</v>
+      </c>
+      <c r="B15" s="8">
+        <v>24.69</v>
       </c>
       <c r="C15" s="3">
-        <v>45</v>
-      </c>
-      <c r="D15" s="8"/>
+        <v>14</v>
+      </c>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="7">
-        <v>2.93</v>
+        <v>56</v>
+      </c>
+      <c r="B16" s="8">
+        <v>5.13</v>
       </c>
       <c r="C16" s="3">
-        <v>30</v>
-      </c>
-      <c r="D16" s="8"/>
+        <v>49</v>
+      </c>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="7">
-        <v>3.91</v>
+        <v>57</v>
+      </c>
+      <c r="B17" s="8">
+        <v>17.89</v>
       </c>
       <c r="C17" s="3">
-        <v>8</v>
-      </c>
-      <c r="D17" s="8"/>
+        <v>33</v>
+      </c>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="7">
-        <v>4.87</v>
+        <v>58</v>
+      </c>
+      <c r="B18" s="8">
+        <v>24.42</v>
       </c>
       <c r="C18" s="3">
-        <v>31</v>
-      </c>
-      <c r="D18" s="8"/>
+        <v>24</v>
+      </c>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="7">
-        <v>12.87</v>
+        <v>59</v>
+      </c>
+      <c r="B19" s="8">
+        <v>8.75</v>
       </c>
       <c r="C19" s="3">
-        <v>9</v>
-      </c>
-      <c r="D19" s="8"/>
+        <v>13</v>
+      </c>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="14"/>
+      <c r="C20" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="13"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -1817,8 +1829,8 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="13" t="s">
-        <v>60</v>
+      <c r="A22" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1826,85 +1838,85 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="7">
-        <v>11.06</v>
+        <v>55</v>
+      </c>
+      <c r="B24" s="8">
+        <v>1.01</v>
       </c>
       <c r="C24" s="3">
-        <v>26</v>
-      </c>
-      <c r="D24" s="8"/>
+        <v>23</v>
+      </c>
+      <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="7">
-        <v>13.41</v>
+        <v>56</v>
+      </c>
+      <c r="B25" s="8">
+        <v>16.76</v>
       </c>
       <c r="C25" s="3">
-        <v>40</v>
-      </c>
-      <c r="D25" s="8"/>
+        <v>23</v>
+      </c>
+      <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="7">
-        <v>15.81</v>
+        <v>57</v>
+      </c>
+      <c r="B26" s="8">
+        <v>28.31</v>
       </c>
       <c r="C26" s="3">
-        <v>14</v>
-      </c>
-      <c r="D26" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="7">
-        <v>12.53</v>
+        <v>58</v>
+      </c>
+      <c r="B27" s="8">
+        <v>22.56</v>
       </c>
       <c r="C27" s="3">
-        <v>22</v>
-      </c>
-      <c r="D27" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="7">
-        <v>25.86</v>
+        <v>59</v>
+      </c>
+      <c r="B28" s="8">
+        <v>20.41</v>
       </c>
       <c r="C28" s="3">
-        <v>35</v>
-      </c>
-      <c r="D28" s="8"/>
+        <v>42</v>
+      </c>
+      <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="14"/>
+      <c r="C29" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -1913,8 +1925,8 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="13" t="s">
-        <v>62</v>
+      <c r="A31" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1922,89 +1934,97 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="7">
-        <v>8.22</v>
+        <v>55</v>
+      </c>
+      <c r="B33" s="8">
+        <v>15.62</v>
       </c>
       <c r="C33" s="3">
-        <v>20</v>
-      </c>
-      <c r="D33" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="D33" s="9"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="7">
-        <v>13.22</v>
+        <v>56</v>
+      </c>
+      <c r="B34" s="8">
+        <v>24.99</v>
       </c>
       <c r="C34" s="3">
-        <v>30</v>
-      </c>
-      <c r="D34" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="D34" s="9"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="7">
-        <v>6.74</v>
+        <v>57</v>
+      </c>
+      <c r="B35" s="8">
+        <v>17.87</v>
       </c>
       <c r="C35" s="3">
-        <v>45</v>
-      </c>
-      <c r="D35" s="8"/>
+        <v>19</v>
+      </c>
+      <c r="D35" s="9"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="7">
-        <v>7.98</v>
+        <v>58</v>
+      </c>
+      <c r="B36" s="8">
+        <v>17.95</v>
       </c>
       <c r="C36" s="3">
-        <v>48</v>
-      </c>
-      <c r="D36" s="8"/>
+        <v>26</v>
+      </c>
+      <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="7">
-        <v>9.21</v>
+        <v>59</v>
+      </c>
+      <c r="B37" s="8">
+        <v>23.42</v>
       </c>
       <c r="C37" s="3">
-        <v>22</v>
-      </c>
-      <c r="D37" s="8"/>
+        <v>20</v>
+      </c>
+      <c r="D37" s="9"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" s="11"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="13"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="12"/>
+      <c r="C40" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="C41" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2024,10 +2044,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A11" sqref="A11:L21"/>
+      <selection activeCell="A11" sqref="A11:L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2047,90 +2067,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="15" t="s">
-        <v>65</v>
+      <c r="A1" s="14" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="B11" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="16" t="s">
+      <c r="G11" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="L11" s="16" t="s">
+      <c r="J11" s="15" t="s">
         <v>79</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D12" s="3">
         <v>3</v>
@@ -2142,13 +2162,13 @@
         <v>4</v>
       </c>
       <c r="G12" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H12" s="3">
         <v>2</v>
       </c>
       <c r="I12" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J12" s="3">
         <v>2</v>
@@ -2159,31 +2179,31 @@
     <row r="13" spans="1:12">
       <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D13" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E13" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F13" s="3">
         <v>2</v>
       </c>
       <c r="G13" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H13" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I13" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J13" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
@@ -2191,31 +2211,31 @@
     <row r="14" spans="1:12">
       <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D14" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E14" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F14" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G14" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H14" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I14" s="3">
         <v>5</v>
       </c>
       <c r="J14" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -2223,31 +2243,31 @@
     <row r="15" spans="1:12">
       <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D15" s="3">
+        <v>2</v>
+      </c>
+      <c r="E15" s="3">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3">
+        <v>2</v>
+      </c>
+      <c r="G15" s="3">
+        <v>2</v>
+      </c>
+      <c r="H15" s="3">
+        <v>2</v>
+      </c>
+      <c r="I15" s="3">
         <v>4</v>
       </c>
-      <c r="E15" s="3">
+      <c r="J15" s="3">
         <v>4</v>
-      </c>
-      <c r="F15" s="3">
-        <v>5</v>
-      </c>
-      <c r="G15" s="3">
-        <v>6</v>
-      </c>
-      <c r="H15" s="3">
-        <v>6</v>
-      </c>
-      <c r="I15" s="3">
-        <v>6</v>
-      </c>
-      <c r="J15" s="3">
-        <v>2</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -2255,19 +2275,19 @@
     <row r="16" spans="1:12">
       <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D16" s="3">
         <v>5</v>
       </c>
       <c r="E16" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F16" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G16" s="3">
         <v>6</v>
@@ -2279,7 +2299,7 @@
         <v>6</v>
       </c>
       <c r="J16" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
@@ -2287,136 +2307,72 @@
     <row r="17" spans="1:12">
       <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D17" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E17" s="3">
+        <v>3</v>
+      </c>
+      <c r="F17" s="3">
         <v>2</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3</v>
       </c>
-      <c r="G17" s="3">
-        <v>4</v>
-      </c>
       <c r="H17" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I17" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J17" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="4"/>
-      <c r="B18" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D18" s="3">
-        <v>5</v>
-      </c>
-      <c r="E18" s="3">
-        <v>5</v>
-      </c>
-      <c r="F18" s="3">
-        <v>3</v>
-      </c>
-      <c r="G18" s="3">
-        <v>5</v>
-      </c>
-      <c r="H18" s="3">
-        <v>5</v>
-      </c>
-      <c r="I18" s="3">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3">
-        <v>2</v>
-      </c>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
+      <c r="A18" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="4"/>
-      <c r="B19" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D19" s="3">
-        <v>2</v>
-      </c>
-      <c r="E19" s="3">
-        <v>4</v>
-      </c>
-      <c r="F19" s="3">
-        <v>3</v>
-      </c>
-      <c r="G19" s="3">
-        <v>3</v>
-      </c>
-      <c r="H19" s="3">
-        <v>2</v>
-      </c>
-      <c r="I19" s="3">
-        <v>2</v>
-      </c>
-      <c r="J19" s="3">
-        <v>5</v>
-      </c>
+      <c r="A19" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="D21:L21"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="D19:L19"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2429,10 +2385,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A29" sqref="A29:B31"/>
+      <selection activeCell="A27" sqref="A27:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2443,12 +2399,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2492,189 +2448,167 @@
       <c r="A11" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C11" s="7">
-        <v>12900</v>
+      <c r="B11" s="3">
+        <v>1997</v>
+      </c>
+      <c r="C11" s="8">
+        <v>7266</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C12" s="7">
-        <v>6058</v>
+        <v>106</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2003</v>
+      </c>
+      <c r="C12" s="8">
+        <v>4465</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C13" s="7">
-        <v>13744</v>
+        <v>107</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C13" s="8">
+        <v>4904</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C14" s="7">
-        <v>8864</v>
+        <v>108</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1981</v>
+      </c>
+      <c r="C14" s="8">
+        <v>14722</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C15" s="7">
-        <v>3887</v>
+        <v>109</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1987</v>
+      </c>
+      <c r="C15" s="8">
+        <v>5951</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C16" s="7">
-        <v>11067</v>
+        <v>110</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1984</v>
+      </c>
+      <c r="C16" s="8">
+        <v>11697</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C17" s="7">
-        <v>13282</v>
+        <v>111</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1998</v>
+      </c>
+      <c r="C17" s="8">
+        <v>5725</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C18" s="7">
-        <v>10575</v>
+        <v>112</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1996</v>
+      </c>
+      <c r="C18" s="8">
+        <v>3504</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C19" s="7">
-        <v>14390</v>
+        <v>113</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1985</v>
+      </c>
+      <c r="C19" s="8">
+        <v>7621</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C20" s="7">
-        <v>6617</v>
+        <v>114</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1983</v>
+      </c>
+      <c r="C20" s="8">
+        <v>3894</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C21" s="7">
-        <v>11205</v>
+        <v>115</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1983</v>
+      </c>
+      <c r="C21" s="8">
+        <v>14211</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C22" s="7">
-        <v>14291</v>
+        <v>116</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1984</v>
+      </c>
+      <c r="C22" s="8">
+        <v>11096</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C23" s="7">
-        <v>11932</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C24" s="7">
-        <v>9768</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C25" s="7">
-        <v>7146</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1999</v>
+      </c>
+      <c r="C23" s="8">
+        <v>6581</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>119</v>
+      </c>
+      <c r="B27" s="2"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="17" t="s">
-        <v>134</v>
-      </c>
+      <c r="A28" t="s">
+        <v>120</v>
+      </c>
+      <c r="B28" s="7"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>135</v>
-      </c>
-      <c r="B29" s="2"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>136</v>
-      </c>
-      <c r="B30" s="6"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>137</v>
-      </c>
-      <c r="B31" s="6"/>
+        <v>121</v>
+      </c>
+      <c r="B29" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2691,10 +2625,230 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A48" sqref="A48:B52"/>
+      <selection activeCell="A10" sqref="A10:C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="true" style="0"/>
+    <col min="2" max="2" width="15" customWidth="true" style="0"/>
+    <col min="3" max="3" width="18" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" s="3">
+        <v>109</v>
+      </c>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" s="3">
+        <v>182</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B13" s="3">
+        <v>94</v>
+      </c>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" s="3">
+        <v>91</v>
+      </c>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B15" s="3">
+        <v>125</v>
+      </c>
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B16" s="3">
+        <v>142</v>
+      </c>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B17" s="3">
+        <v>196</v>
+      </c>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B18" s="3">
+        <v>99</v>
+      </c>
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B19" s="3">
+        <v>115</v>
+      </c>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20" s="3">
+        <v>148</v>
+      </c>
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B21" s="3">
+        <v>102</v>
+      </c>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" s="3">
+        <v>106</v>
+      </c>
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23" s="3">
+        <v>144</v>
+      </c>
+      <c r="C23" s="9"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B24" s="3">
+        <v>120</v>
+      </c>
+      <c r="C24" s="9"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B25" s="3">
+        <v>124</v>
+      </c>
+      <c r="C25" s="9"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B26" s="3">
+        <v>110</v>
+      </c>
+      <c r="C26" s="9"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B27" s="3">
+        <v>153</v>
+      </c>
+      <c r="C27" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A47" sqref="A47:B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2709,86 +2863,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="15" t="s">
-        <v>138</v>
+      <c r="A1" s="14" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2796,22 +2950,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D16" s="7">
-        <v>816</v>
-      </c>
-      <c r="E16" s="7">
-        <v>1069</v>
+        <v>163</v>
+      </c>
+      <c r="D16" s="8">
+        <v>1113</v>
+      </c>
+      <c r="E16" s="8">
+        <v>1235</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2819,22 +2973,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D17" s="7">
-        <v>665</v>
-      </c>
-      <c r="E17" s="7">
-        <v>924</v>
+        <v>167</v>
+      </c>
+      <c r="D17" s="8">
+        <v>1011</v>
+      </c>
+      <c r="E17" s="8">
+        <v>1385</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2842,22 +2996,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D18" s="7">
-        <v>1103</v>
-      </c>
-      <c r="E18" s="7">
-        <v>1313</v>
+        <v>171</v>
+      </c>
+      <c r="D18" s="8">
+        <v>1210</v>
+      </c>
+      <c r="E18" s="8">
+        <v>1379</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2865,22 +3019,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1117</v>
-      </c>
-      <c r="E19" s="7">
-        <v>1262</v>
+        <v>174</v>
+      </c>
+      <c r="D19" s="8">
+        <v>1470</v>
+      </c>
+      <c r="E19" s="8">
+        <v>1882</v>
       </c>
       <c r="F19" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2888,22 +3042,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1017</v>
-      </c>
-      <c r="E20" s="7">
-        <v>1292</v>
+        <v>163</v>
+      </c>
+      <c r="D20" s="8">
+        <v>679</v>
+      </c>
+      <c r="E20" s="8">
+        <v>923</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2911,22 +3065,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1367</v>
-      </c>
-      <c r="E21" s="7">
-        <v>1681</v>
+        <v>178</v>
+      </c>
+      <c r="D21" s="8">
+        <v>1461</v>
+      </c>
+      <c r="E21" s="8">
+        <v>1680</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2934,22 +3088,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D22" s="7">
-        <v>681</v>
-      </c>
-      <c r="E22" s="7">
-        <v>940</v>
+        <v>182</v>
+      </c>
+      <c r="D22" s="8">
+        <v>1444</v>
+      </c>
+      <c r="E22" s="8">
+        <v>1603</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2957,22 +3111,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D23" s="7">
-        <v>1176</v>
-      </c>
-      <c r="E23" s="7">
-        <v>1376</v>
+        <v>185</v>
+      </c>
+      <c r="D23" s="8">
+        <v>1470</v>
+      </c>
+      <c r="E23" s="8">
+        <v>1926</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2980,22 +3134,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="D24" s="7">
-        <v>1340</v>
-      </c>
-      <c r="E24" s="7">
-        <v>1809</v>
+        <v>186</v>
+      </c>
+      <c r="D24" s="8">
+        <v>638</v>
+      </c>
+      <c r="E24" s="8">
+        <v>766</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3003,22 +3157,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D25" s="7">
-        <v>678</v>
-      </c>
-      <c r="E25" s="7">
-        <v>909</v>
+        <v>189</v>
+      </c>
+      <c r="D25" s="8">
+        <v>1392</v>
+      </c>
+      <c r="E25" s="8">
+        <v>1559</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3026,22 +3180,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D26" s="7">
-        <v>676</v>
-      </c>
-      <c r="E26" s="7">
-        <v>933</v>
+        <v>178</v>
+      </c>
+      <c r="D26" s="8">
+        <v>1257</v>
+      </c>
+      <c r="E26" s="8">
+        <v>1483</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3049,22 +3203,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D27" s="7">
-        <v>1042</v>
-      </c>
-      <c r="E27" s="7">
-        <v>1448</v>
+        <v>189</v>
+      </c>
+      <c r="D27" s="8">
+        <v>1058</v>
+      </c>
+      <c r="E27" s="8">
+        <v>1196</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3072,22 +3226,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D28" s="7">
-        <v>1195</v>
-      </c>
-      <c r="E28" s="7">
-        <v>1661</v>
+        <v>193</v>
+      </c>
+      <c r="D28" s="8">
+        <v>615</v>
+      </c>
+      <c r="E28" s="8">
+        <v>701</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>13</v>
+        <v>194</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3095,22 +3249,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D29" s="7">
-        <v>1316</v>
-      </c>
-      <c r="E29" s="7">
-        <v>1500</v>
+        <v>196</v>
+      </c>
+      <c r="D29" s="8">
+        <v>1182</v>
+      </c>
+      <c r="E29" s="8">
+        <v>1608</v>
       </c>
       <c r="F29" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>192</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3118,22 +3272,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D30" s="7">
-        <v>1427</v>
-      </c>
-      <c r="E30" s="7">
-        <v>1584</v>
+        <v>197</v>
+      </c>
+      <c r="D30" s="8">
+        <v>1182</v>
+      </c>
+      <c r="E30" s="8">
+        <v>1430</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3141,22 +3295,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D31" s="7">
-        <v>1116</v>
-      </c>
-      <c r="E31" s="7">
-        <v>1328</v>
+      <c r="D31" s="8">
+        <v>1273</v>
+      </c>
+      <c r="E31" s="8">
+        <v>1757</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3164,22 +3318,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D32" s="7">
-        <v>724</v>
-      </c>
-      <c r="E32" s="7">
-        <v>840</v>
+        <v>200</v>
+      </c>
+      <c r="D32" s="8">
+        <v>1314</v>
+      </c>
+      <c r="E32" s="8">
+        <v>1603</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3187,22 +3341,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D33" s="7">
-        <v>1433</v>
-      </c>
-      <c r="E33" s="7">
-        <v>1677</v>
+        <v>202</v>
+      </c>
+      <c r="D33" s="8">
+        <v>1343</v>
+      </c>
+      <c r="E33" s="8">
+        <v>1853</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3210,22 +3364,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D34" s="7">
-        <v>718</v>
-      </c>
-      <c r="E34" s="7">
-        <v>991</v>
+        <v>202</v>
+      </c>
+      <c r="D34" s="8">
+        <v>926</v>
+      </c>
+      <c r="E34" s="8">
+        <v>1167</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3233,22 +3387,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D35" s="7">
-        <v>1314</v>
-      </c>
-      <c r="E35" s="7">
-        <v>1826</v>
+        <v>204</v>
+      </c>
+      <c r="D35" s="8">
+        <v>1397</v>
+      </c>
+      <c r="E35" s="8">
+        <v>1662</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>162</v>
+        <v>205</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3256,22 +3410,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D36" s="7">
-        <v>1370</v>
-      </c>
-      <c r="E36" s="7">
-        <v>1891</v>
+        <v>206</v>
+      </c>
+      <c r="D36" s="8">
+        <v>1002</v>
+      </c>
+      <c r="E36" s="8">
+        <v>1283</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3279,22 +3433,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="D37" s="7">
-        <v>1148</v>
-      </c>
-      <c r="E37" s="7">
-        <v>1573</v>
+        <v>202</v>
+      </c>
+      <c r="D37" s="8">
+        <v>560</v>
+      </c>
+      <c r="E37" s="8">
+        <v>728</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>201</v>
+        <v>172</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3302,22 +3456,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D38" s="7">
-        <v>1443</v>
-      </c>
-      <c r="E38" s="7">
-        <v>1804</v>
+        <v>204</v>
+      </c>
+      <c r="D38" s="8">
+        <v>1499</v>
+      </c>
+      <c r="E38" s="8">
+        <v>1889</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3325,22 +3479,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D39" s="7">
-        <v>1200</v>
-      </c>
-      <c r="E39" s="7">
-        <v>1428</v>
+        <v>209</v>
+      </c>
+      <c r="D39" s="8">
+        <v>600</v>
+      </c>
+      <c r="E39" s="8">
+        <v>804</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3348,22 +3502,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="D40" s="7">
-        <v>1293</v>
-      </c>
-      <c r="E40" s="7">
-        <v>1422</v>
+        <v>163</v>
+      </c>
+      <c r="D40" s="8">
+        <v>1443</v>
+      </c>
+      <c r="E40" s="8">
+        <v>1861</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>177</v>
+        <v>208</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3371,22 +3525,22 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D41" s="7">
-        <v>1420</v>
-      </c>
-      <c r="E41" s="7">
-        <v>1704</v>
+        <v>174</v>
+      </c>
+      <c r="D41" s="8">
+        <v>825</v>
+      </c>
+      <c r="E41" s="8">
+        <v>1048</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3394,22 +3548,22 @@
         <v>27</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>164</v>
+        <v>207</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D42" s="7">
-        <v>563</v>
-      </c>
-      <c r="E42" s="7">
-        <v>625</v>
+        <v>186</v>
+      </c>
+      <c r="D42" s="8">
+        <v>1069</v>
+      </c>
+      <c r="E42" s="8">
+        <v>1475</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3417,81 +3571,58 @@
         <v>28</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>164</v>
+        <v>207</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D43" s="7">
-        <v>1332</v>
-      </c>
-      <c r="E43" s="7">
-        <v>1585</v>
+        <v>204</v>
+      </c>
+      <c r="D43" s="8">
+        <v>932</v>
+      </c>
+      <c r="E43" s="8">
+        <v>1240</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="3">
-        <v>29</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D44" s="7">
-        <v>1208</v>
-      </c>
-      <c r="E44" s="7">
-        <v>1413</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>203</v>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="16" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="17" t="s">
-        <v>134</v>
-      </c>
+      <c r="A47" t="s">
+        <v>212</v>
+      </c>
+      <c r="B47" s="7"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>208</v>
-      </c>
-      <c r="B48" s="6"/>
+        <v>213</v>
+      </c>
+      <c r="B48" s="7"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>209</v>
-      </c>
-      <c r="B49" s="6"/>
+        <v>214</v>
+      </c>
+      <c r="B49" s="7"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>210</v>
-      </c>
-      <c r="B50" s="6"/>
+        <v>215</v>
+      </c>
+      <c r="B50" s="7"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>211</v>
-      </c>
-      <c r="B51" s="6"/>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" t="s">
-        <v>212</v>
-      </c>
-      <c r="B52" s="6"/>
+        <v>216</v>
+      </c>
+      <c r="B51" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
